--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="核心业务功能" sheetId="1" r:id="rId1"/>
     <sheet name="设计约束" sheetId="2" r:id="rId2"/>
     <sheet name="功能模块" sheetId="3" r:id="rId3"/>
+    <sheet name="页面-接口" sheetId="4" r:id="rId4"/>
+    <sheet name="基础数据" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,8 +22,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+感觉缺少中间状态</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+(特殊情况下 价格波动或确认由采购部修改状态 让需求部门修改)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="219">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库类信息管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门采购需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信企业中没有标签管理功能了？无法实现角色设置？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +448,518 @@
   </si>
   <si>
     <t>微信企业-关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品大类（食材）报价时间范围筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品大类（食材）下的小类（蔬菜类、佐料类）分组显示商品报价条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品（满足前置条件）显示各供应商报价详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示供应商报价历史记录（时间倒叙） 近3个月记录分组 需要分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品大类、采购关键字、时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按上述条件的分类数量统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择大类、按照商品名称模糊匹配、填入需求数量，新增一条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增采购单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个采购单的商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购需求部门模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为确认的采购计划数量、采购成功的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表查询项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品大类、采购关键字、时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表【未确认】分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表【已确认】分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认采购单【未确认-已确认】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除-确认删除-执行删除 重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表【需修改】分页(特殊情况下 价格波动或确认由采购部修改状态 让需求部门修改)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需修改的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购需求部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表【需修改】分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（初审）详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品小类分组（分组上有该类型下条目数量）、某分组内明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称、采购编号、待初审的采购明细条目（分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称、采购编号、待复审的采购明细条目（分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（初审）列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（复审）列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（复审）详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择/查看供应商（根据商品显示对应的供应商名称、总价）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品小类分组（分组上有该类型下条目数量）、某分组内明细列表（商品名称、数量、单位）、小类商品的供应商确认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆制品、面点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家禽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产冻品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干副</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋米面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货调味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡菜类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食百商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单列表（当前部门、待收货状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按每种类型商品展开、数量、单位显示 实收数量默认为计划数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改每种商品数量后提交改值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表(用于盘存)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库盘点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购类型(供应商有自己的采购大类关联)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交价格需二次确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count4all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list4audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id = 2 OR purchasing_state_id = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个采购单的商品列表筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中一条记录后新增第1条商品明细 生成采购主记录 生成采购明细记录并关联 主记录item_count为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除一条明细记录 更新主记录item_count为当前关联的明细数量(-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中一条记录后新增第2条采购主记录 并生成明细关联 更新主记录item_count为当前关联的明细数量(+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细删除完后 随即删除当前采购主记录(可暂时不实现)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过初审 新增一条audit记录audiy_type为 并将当前采购计划状态更新为05的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count4dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_unconfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除-确认删除-执行删除-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认采购单【未确认-已确认】-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改采购订单-跳转到新增传入值-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无写入操作仅能查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需修改的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_need_modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认的采购计划数量、采购成功的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购计划按状态统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收货后按所有商品实收数量逻辑入库更新在库记录【我再考虑下细节】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_detail_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按已收货的历史统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材分类(来自永辉名录)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +997,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,9 +1044,70 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -451,10 +1118,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1217,49 +1923,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="83.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -1267,63 +1974,975 @@
         <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="105.125" customWidth="1"/>
+    <col min="7" max="7" width="3.25" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="12"/>
+      <c r="D4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="12"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="12"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="12"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="12"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="12"/>
+      <c r="D46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="12"/>
+      <c r="D47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="12"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="12"/>
+      <c r="D50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C26:C43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C3:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>82</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -12,6 +12,7 @@
     <sheet name="功能模块" sheetId="3" r:id="rId3"/>
     <sheet name="页面-接口" sheetId="4" r:id="rId4"/>
     <sheet name="基础数据" sheetId="5" r:id="rId5"/>
+    <sheet name="数据初始化脚本" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,12 +81,104 @@
         </r>
       </text>
     </comment>
+    <comment ref="E27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+purchasing_plan
+purchasing_plan_detail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+插入pruchasing_audit
+更新pruchasing_plan
+purchasing_plan_detail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+插入pruchasing_vendor
+更新pruchasing_plan
+pruchasing_plan_detail(单价\更新时间)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="318">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,14 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按商品小类分组（分组上有该类型下条目数量）、某分组内明细列表（商品名称、数量、单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回（输入退回原因 确认提交）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,22 +740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待审采购单（复审）详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过复审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择/查看供应商（根据商品显示对应的供应商名称、总价）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按商品小类分组（分组上有该类型下条目数量）、某分组内明细列表（商品名称、数量、单位）、小类商品的供应商确认状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报价筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,6 +748,363 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>干副</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单列表（当前部门、待收货状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按每种类型商品展开、数量、单位显示 实收数量默认为计划数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改每种商品数量后提交改值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表(用于盘存)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库盘点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交价格需二次确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id = 2 OR purchasing_state_id = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个采购单的商品列表筛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中一条记录后新增第1条商品明细 生成采购主记录 生成采购明细记录并关联 主记录item_count为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除一条明细记录 更新主记录item_count为当前关联的明细数量(-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中一条记录后新增第2条采购主记录 并生成明细关联 更新主记录item_count为当前关联的明细数量(+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细删除完后 随即删除当前采购主记录(可暂时不实现)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count4dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_unconfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除-确认删除-执行删除-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认采购单【未确认-已确认】-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改采购订单-跳转到新增传入值-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需修改的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_need_modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认的采购计划数量、采购成功的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购计划按状态统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收货后按所有商品实收数量逻辑入库更新在库记录【我再考虑下细节】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_detail_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按已收货的历史统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材分类(来自永辉名录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count_4_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品小类分组（分组上有该类型下条目数量）外层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_audit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品小类分组（分组上有该类型下条目数量）包含供应商是否选择，外层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1，vendor_id为空为未指定供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过初审 新增一条audit记录audiy_type为1 并将当前采购计划状态更新为05的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_vendor_goods_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中供应商小计价格列表，确定提交后生成一条purchasing_plan_vendor记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_count_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过复审，前台验证通过后 生成订单、订单明细、采购审核记录，更新采购状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_quote_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单新增（第一次）,报价单更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_id=p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_id=p1,biz_type_id=p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购类型选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商有自己的采购大类关联下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（复审）详情（初审通过后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生商品类目与供应商关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (1, '01', '餐饮食材', '餐饮食材', 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (2, '02', '酒店物资', '酒店物资', 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (3, '03', '办公用品', '办公用品', 0);</t>
+  </si>
+  <si>
     <t>豆制品、面点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +1121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>干副</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛋米面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,259 +1137,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单列表（当前部门、待收货状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按每种类型商品展开、数量、单位显示 实收数量默认为计划数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改每种商品数量后提交改值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存报表(用于盘存)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库盘点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按采购类型(供应商有自己的采购大类关联)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交价格需二次确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_biz_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_count4all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list4audit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id = 2 OR purchasing_state_id = 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods_class_quote_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个采购单的商品列表筛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_class_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中一条记录后新增第1条商品明细 生成采购主记录 生成采购明细记录并关联 主记录item_count为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除一条明细记录 更新主记录item_count为当前关联的明细数量(-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中一条记录后新增第2条采购主记录 并生成明细关联 更新主记录item_count为当前关联的明细数量(+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细删除完后 随即删除当前采购主记录(可暂时不实现)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过初审 新增一条audit记录audiy_type为 并将当前采购计划状态更新为05的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回（输入退回原因 确认提交）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_count4dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_dept_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_dept_unconfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未确认的采购单列表，单号、采购项数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除-确认删除-执行删除-重新加载数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认采购单【未确认-已确认】-重新加载数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改采购订单-跳转到新增传入值-重新加载数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无写入操作仅能查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确认的采购单列表，单号、采购项数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需修改的采购单列表，单号、采购项数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_dept_need_modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_order_list_4_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未确认的采购计划数量、采购成功的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购计划按状态统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收货后按所有商品实收数量逻辑入库更新在库记录【我再考虑下细节】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_order_detail_list_4_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按已收货的历史统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食材分类(来自永辉名录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>--- 业务类型 ---</t>
+  </si>
+  <si>
+    <t>--- 商品类目 (仅包括餐饮食材) ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (1, "0101", "毛菜", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (2, "0102", "豆制品、面点", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (3, "0103", "猪肉", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (4, "0104", "家禽", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (5, "0105", "水产冻品", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (6, "0106", "干副", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (7, "0107", "蛋米面", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (8, "0108", "干货调味", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (9, "0109", "泡菜类", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (10, "0110", "食百商品", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>--- 商品单位 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (1, "001", "KG", "千克", NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (2, "002", "个", "个", NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (3, "003", "袋", "袋", NULL);</t>
+  </si>
+  <si>
+    <t>--- 商品 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (1, NULL, '白萝卜', '559', NULL, 1, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (2, NULL, '新土豆', '3695', NULL, 1, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (3, NULL, '娃娃菜', '2070', NULL, 2, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (4, NULL, '清水笋业务包(彩食鲜)', '924427', '3个/袋', 3, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (5, NULL, '三线肉(2级)', '55555', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (6, NULL, '肉馅(2级)', '666666', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (7, NULL, '已杀公鸡(2级)', '777777', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (8, NULL, '已杀鸭子(2级)', '888888', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>--- 角色 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (1, NULL, 'zc', '部门采购负责人');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (2, NULL, 'kg', '部门库管');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (3, NULL, 'cgy', '采购部采购员');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (4, NULL, 'cgzg', '采购部采购主管');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (5, NULL, 'cgzj', '管理部采购总监');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (6, NULL, 'gys', '供应商');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (7, NULL, 'xtgly', '系统管理员');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (8, NULL, 'CEO', '老总');</t>
+  </si>
+  <si>
+    <t>--- 部门 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (1, NULL, 'DEV01', '开测测试1', NULL, NULL, NULL, '13752900669', NULL, '开发测试地址1', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (2, NULL, 'DEV02', '开测测试2', NULL, NULL, NULL, '13752900669', NULL, '开发测试地址2', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (3, NULL, 'CY01', '餐饮部1', '食堂1', NULL, NULL, '13752900669', NULL, '餐饮部1地址', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (4, NULL, 'CY02', '餐饮部2', '食堂2', NULL, NULL, '13752900669', NULL, '餐饮部2地址', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (5, NULL, 'CG', '采购部', '采购中心', NULL, NULL, '13752900669', NULL, '采购中心', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (6, NULL, 'GL', '管理部', '管理部', NULL, NULL, '13752900669', NULL, '管理部', NULL);</t>
+  </si>
+  <si>
+    <t>--- 用户 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (1, NULL, 'CY01-01', '总厨走龙', '食堂1总厨', NULL, NULL, NULL, NULL, NULL, NULL, 3, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (2, NULL, 'CY02-01', '总厨章杰', '食堂2总厨', NULL, NULL, NULL, NULL, NULL, NULL, 4, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (3, NULL, 'yg-01', '永辉潘俊', '供应商永辉负责人潘俊', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 1, 6, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (4, NULL, 'vendor01-01', '双福1王池', '供应商双福批发商1负责人王池', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 2, 6, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (5, NULL, 'vendor02-01', '双福2余岳', '供应商双福批发商2负责人余岳', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 3, 6, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (6, NULL, 'CG-01', '采购员熊雪凯', '采购部采购员', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (7, NULL, 'CG-02', '采购主管陈琛', '采购部主管经理', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 4, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (8, NULL, 'GL-01', '采购总监吴敏', '采购总监', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 5, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (9, NULL, 'GL-02', '雷总', '总经理', NULL, NULL, NULL, NULL, NULL, NULL, 6, NULL, 8, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (10, NULL, 'DEV01-01', '贺彦', '系统管理员', NULL, NULL, NULL, NULL, NULL, NULL, 1, NULL, 7, 0);</t>
+  </si>
+  <si>
+    <t>--- 用户 - 角色关联 ---</t>
+  </si>
+  <si>
+    <t>--- 供应商 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (1, 'yg', '永辉', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (2, 'vendor01', '双福批发商1', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (3, 'vendor02', '双福批发商2', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
+  </si>
+  <si>
+    <t>--- 供应商 - 商品类目关联 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (1, 1, 1, 1, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (2, 1, 1, 2, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (3, 1, 1, 3, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (4, 1, 1, 4, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (5, 1, 1, 5, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (6, 1, 1, 6, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (7, 1, 1, 7, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (8, 1, 1, 8, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (9, 1, 1, 9, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (10, 1, 1, 10, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (11, 2, 1, 1, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (12, 2, 1, 2, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (13, 2, 1, 3, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (14, 2, 1, 4, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (15, 2, 1, 5, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (16, 3, 1, 1, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (17, 3, 1, 2, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (18, 3, 1, 3, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (19, 3, 1, 4, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (20, 3, 1, 5, NULL);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,13 +1443,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -1118,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1131,17 +1584,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1151,12 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2176,699 +2641,917 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K50"/>
+  <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="105.125" customWidth="1"/>
+    <col min="6" max="6" width="86.25" customWidth="1"/>
     <col min="7" max="7" width="3.25" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="7" t="s">
-        <v>192</v>
+      <c r="H3" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="12"/>
-      <c r="D4" s="21" t="s">
+    <row r="4" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="26" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>173</v>
+      <c r="H4" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="17"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="8" t="s">
-        <v>183</v>
+      <c r="H5" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="12"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="17"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="12"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="17"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="12"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="18"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="5" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="22" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="5" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="5" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="8" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="5" t="s">
-        <v>199</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="H15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>147</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>201</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>202</v>
+      <c r="H16" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="8" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>163</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="5" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="5" t="s">
-        <v>212</v>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="21" t="s">
+        <v>158</v>
+      </c>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>131</v>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="8" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>140</v>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13" t="s">
-        <v>134</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="4" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="8" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="14"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="17" t="s">
+        <v>225</v>
+      </c>
       <c r="F30" s="5" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="3:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>141</v>
+      <c r="G31" s="4"/>
+      <c r="H31" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="H32" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="4" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="4"/>
+      <c r="H33" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="F34" s="4" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
+    <row r="35" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="4" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="4"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C44" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>168</v>
-      </c>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="4" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="4" t="s">
-        <v>169</v>
-      </c>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C46" s="12"/>
-      <c r="D46" s="4" t="s">
-        <v>170</v>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C47" s="12"/>
-      <c r="D47" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="H46" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C48" s="12"/>
-      <c r="D48" s="4"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C49" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="4"/>
+      <c r="H48" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C50" s="12"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>44</v>
+      </c>
+      <c r="C50" s="25"/>
       <c r="D50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>45</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>46</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>47</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>48</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C25:C45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C3:C24"/>
     <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D37"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D10:D15"/>
     <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C26:C43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C3:C25"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2882,7 +3565,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2892,61 +3575,561 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A111"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -29,7 +29,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="345">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -864,511 +864,672 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_plan_count4dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_purchasing_plan_list_4_dept_confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>未确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除-确认删除-执行删除-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认采购单【未确认-已确认】-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改采购订单-跳转到新增传入值-重新加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需修改的采购单列表，单号、采购项数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认的采购计划数量、采购成功的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购计划按状态统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收货后按所有商品实收数量逻辑入库更新在库记录【我再考虑下细节】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_detail_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按已收货的历史统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材分类(来自永辉名录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count_4_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品小类分组（分组上有该类型下条目数量）外层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_audit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按商品小类分组（分组上有该类型下条目数量）包含供应商是否选择，外层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1，vendor_id为空为未指定供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过初审 新增一条audit记录audiy_type为1 并将当前采购计划状态更新为05的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_vendor_goods_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中供应商小计价格列表，确定提交后生成一条purchasing_plan_vendor记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_count_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过复审，前台验证通过后 生成订单、订单明细、采购审核记录，更新采购状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_quote_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单新增（第一次）,报价单更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_id=p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_id=p1,biz_type_id=p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购类型选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商有自己的采购大类关联下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（复审）详情（初审通过后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生商品类目与供应商关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (1, '01', '餐饮食材', '餐饮食材', 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (2, '02', '酒店物资', '酒店物资', 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (3, '03', '办公用品', '办公用品', 0);</t>
+  </si>
+  <si>
+    <t>豆制品、面点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家禽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水产冻品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋米面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货调味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡菜类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食百商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--- 业务类型 ---</t>
+  </si>
+  <si>
+    <t>--- 商品类目 (仅包括餐饮食材) ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (1, "0101", "毛菜", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (2, "0102", "豆制品、面点", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (3, "0103", "猪肉", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (4, "0104", "家禽", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (5, "0105", "水产冻品", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (6, "0106", "干副", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (7, "0107", "蛋米面", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (8, "0108", "干货调味", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (9, "0109", "泡菜类", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (10, "0110", "食百商品", NULL, NULL, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>--- 商品单位 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (1, "001", "KG", "千克", NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (2, "002", "个", "个", NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (3, "003", "袋", "袋", NULL);</t>
+  </si>
+  <si>
+    <t>--- 商品 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (1, NULL, '白萝卜', '559', NULL, 1, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (2, NULL, '新土豆', '3695', NULL, 1, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (3, NULL, '娃娃菜', '2070', NULL, 2, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (4, NULL, '清水笋业务包(彩食鲜)', '924427', '3个/袋', 3, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (5, NULL, '三线肉(2级)', '55555', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (6, NULL, '肉馅(2级)', '666666', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (7, NULL, '已杀公鸡(2级)', '777777', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (8, NULL, '已杀鸭子(2级)', '888888', NULL, 1, 3, 0);</t>
+  </si>
+  <si>
+    <t>--- 角色 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (1, NULL, 'zc', '部门采购负责人');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (2, NULL, 'kg', '部门库管');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (3, NULL, 'cgy', '采购部采购员');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (4, NULL, 'cgzg', '采购部采购主管');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (5, NULL, 'cgzj', '管理部采购总监');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (6, NULL, 'gys', '供应商');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (7, NULL, 'xtgly', '系统管理员');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (8, NULL, 'CEO', '老总');</t>
+  </si>
+  <si>
+    <t>--- 部门 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (1, NULL, 'DEV01', '开测测试1', NULL, NULL, NULL, '13752900669', NULL, '开发测试地址1', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (2, NULL, 'DEV02', '开测测试2', NULL, NULL, NULL, '13752900669', NULL, '开发测试地址2', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (3, NULL, 'CY01', '餐饮部1', '食堂1', NULL, NULL, '13752900669', NULL, '餐饮部1地址', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (4, NULL, 'CY02', '餐饮部2', '食堂2', NULL, NULL, '13752900669', NULL, '餐饮部2地址', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (5, NULL, 'CG', '采购部', '采购中心', NULL, NULL, '13752900669', NULL, '采购中心', NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (6, NULL, 'GL', '管理部', '管理部', NULL, NULL, '13752900669', NULL, '管理部', NULL);</t>
+  </si>
+  <si>
+    <t>--- 用户 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (1, NULL, 'CY01-01', '总厨走龙', '食堂1总厨', NULL, NULL, NULL, NULL, NULL, NULL, 3, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (2, NULL, 'CY02-01', '总厨章杰', '食堂2总厨', NULL, NULL, NULL, NULL, NULL, NULL, 4, NULL, 1, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (3, NULL, 'yg-01', '永辉潘俊', '供应商永辉负责人潘俊', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 1, 6, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (4, NULL, 'vendor01-01', '双福1王池', '供应商双福批发商1负责人王池', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 2, 6, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (5, NULL, 'vendor02-01', '双福2余岳', '供应商双福批发商2负责人余岳', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 3, 6, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (6, NULL, 'CG-01', '采购员熊雪凯', '采购部采购员', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 3, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (7, NULL, 'CG-02', '采购主管陈琛', '采购部主管经理', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 4, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (8, NULL, 'GL-01', '采购总监吴敏', '采购总监', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 5, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (9, NULL, 'GL-02', '雷总', '总经理', NULL, NULL, NULL, NULL, NULL, NULL, 6, NULL, 8, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (10, NULL, 'DEV01-01', '贺彦', '系统管理员', NULL, NULL, NULL, NULL, NULL, NULL, 1, NULL, 7, 0);</t>
+  </si>
+  <si>
+    <t>--- 用户 - 角色关联 ---</t>
+  </si>
+  <si>
+    <t>--- 供应商 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (1, 'yg', '永辉', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (2, 'vendor01', '双福批发商1', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (3, 'vendor02', '双福批发商2', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
+  </si>
+  <si>
+    <t>--- 供应商 - 商品类目关联 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (1, 1, 1, 1, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (2, 1, 1, 2, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (3, 1, 1, 3, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (4, 1, 1, 4, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (5, 1, 1, 5, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (6, 1, 1, 6, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (7, 1, 1, 7, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (8, 1, 1, 8, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (9, 1, 1, 9, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (10, 1, 1, 10, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (11, 2, 1, 1, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (12, 2, 1, 2, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (13, 2, 1, 3, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (14, 2, 1, 4, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (15, 2, 1, 5, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (16, 3, 1, 1, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (17, 3, 1, 2, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (18, 3, 1, 3, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (19, 3, 1, 4, NULL);</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (20, 3, 1, 5, NULL);</t>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4Dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>view_purchasing_plan_list_4_dept_unconfirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未确认的采购单列表，单号、采购项数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除-确认删除-执行删除-重新加载数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认采购单【未确认-已确认】-重新加载数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改采购订单-跳转到新增传入值-重新加载数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确认的采购单列表，单号、采购项数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需修改的采购单列表，单号、采购项数目</t>
+    <t>--- 采购计划状态 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (1, '01', '需求草稿', '部门采购需求计划草稿');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (2, '02', '提初审', '部门采购需求计划提交等待初审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (3, '03', '初审驳回', '部门采购需求计划初审驳回');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (4, '04', '再提初审', '部门采购需求计划初审驳回后重新提交待初审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (5, '05', '初审通过', '部门采购计划初审通过，即复审草稿');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (6, '06', '提复审', '部门采购计划初审通过等待复审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (7, '07', '复审驳回', '部门采购计划复审驳回');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (8, '08', '再提复审', '部门采购计划复审驳回后重新提交待复审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (9, '09', '复审通过', '部门采购计划复审通过采购订单生成');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (10, '10', '收货入库', '部门采购计划复审通过');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (11, '11', '其他', '其他特殊状态');</t>
+  </si>
+  <si>
+    <t>--- 采购订单状态 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (1, '01', '待供应商确认', '待供应商确认');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (2, '02', '供应商已确认', '供应商确认后即为备货中状态');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (3, '03', '已发货', '供应商备货完成已经发货出来');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (4, '04', '已收货', '部门确认正常收货');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (5, '05', '收货不足量', '部门但为达到收货单计划量但收货');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (6, '06', '其他', '预留状态');</t>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GetPurchasingPlanLists4Dept(department_id, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GetPurchasingPlanLists4Dept(department_id, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GetPurchasingPlanLists4Dept(department_id, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>view_purchasing_plan_list_4_dept_need_modify</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_order_list_4_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未确认的采购计划数量、采购成功的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购计划按状态统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收货后按所有商品实收数量逻辑入库更新在库记录【我再考虑下细节】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_order_detail_list_4_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按已收货的历史统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食材分类(来自永辉名录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_count_4_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购明细列表（商品名称、数量、单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购明细列表（商品名称、数量、单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按商品小类分组（分组上有该类型下条目数量）外层结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_audit2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_audit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按商品小类分组（分组上有该类型下条目数量）包含供应商是否选择，外层结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id =p1，vendor_id为空为未指定供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过初审 新增一条audit记录audiy_type为1 并将当前采购计划状态更新为05的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_vendor_goods_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中供应商小计价格列表，确定提交后生成一条purchasing_plan_vendor记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_count_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过复审，前台验证通过后 生成订单、订单明细、采购审核记录，更新采购状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_biz_type_4_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods_quote_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价单显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价单新增（第一次）,报价单更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendor_id=p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendor_id=p1,biz_type_id=p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按采购类型选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商有自己的采购大类关联下拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初审驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初审通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审采购单（复审）详情（初审通过后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产生商品类目与供应商关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (1, '01', '餐饮食材', '餐饮食材', 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (2, '02', '酒店物资', '酒店物资', 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (3, '03', '办公用品', '办公用品', 0);</t>
-  </si>
-  <si>
-    <t>豆制品、面点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家禽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水产冻品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋米面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干货调味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡菜类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食百商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--- 业务类型 ---</t>
-  </si>
-  <si>
-    <t>--- 商品类目 (仅包括餐饮食材) ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (1, "0101", "毛菜", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (2, "0102", "豆制品、面点", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (3, "0103", "猪肉", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (4, "0104", "家禽", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (5, "0105", "水产冻品", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (6, "0106", "干副", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (7, "0107", "蛋米面", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (8, "0108", "干货调味", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (9, "0109", "泡菜类", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (10, "0110", "食百商品", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>--- 商品单位 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (1, "001", "KG", "千克", NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (2, "002", "个", "个", NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods_unit"("id", "code", "name", "desc", "remark") VALUES (3, "003", "袋", "袋", NULL);</t>
-  </si>
-  <si>
-    <t>--- 商品 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (1, NULL, '白萝卜', '559', NULL, 1, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (2, NULL, '新土豆', '3695', NULL, 1, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (3, NULL, '娃娃菜', '2070', NULL, 2, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (4, NULL, '清水笋业务包(彩食鲜)', '924427', '3个/袋', 3, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (5, NULL, '三线肉(2级)', '55555', NULL, 1, 3, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (6, NULL, '肉馅(2级)', '666666', NULL, 1, 3, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (7, NULL, '已杀公鸡(2级)', '777777', NULL, 1, 3, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."goods"("id", "code", "name", "specification", "desc", "goods_unit_id", "goods_class_id", "disable") VALUES (8, NULL, '已杀鸭子(2级)', '888888', NULL, 1, 3, 0);</t>
-  </si>
-  <si>
-    <t>--- 角色 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (1, NULL, 'zc', '部门采购负责人');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (2, NULL, 'kg', '部门库管');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (3, NULL, 'cgy', '采购部采购员');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (4, NULL, 'cgzg', '采购部采购主管');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (5, NULL, 'cgzj', '管理部采购总监');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (6, NULL, 'gys', '供应商');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (7, NULL, 'xtgly', '系统管理员');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."role"("id", "wechat_roup_id", "code", "name") VALUES (8, NULL, 'CEO', '老总');</t>
-  </si>
-  <si>
-    <t>--- 部门 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (1, NULL, 'DEV01', '开测测试1', NULL, NULL, NULL, '13752900669', NULL, '开发测试地址1', NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (2, NULL, 'DEV02', '开测测试2', NULL, NULL, NULL, '13752900669', NULL, '开发测试地址2', NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (3, NULL, 'CY01', '餐饮部1', '食堂1', NULL, NULL, '13752900669', NULL, '餐饮部1地址', NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (4, NULL, 'CY02', '餐饮部2', '食堂2', NULL, NULL, '13752900669', NULL, '餐饮部2地址', NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (5, NULL, 'CG', '采购部', '采购中心', NULL, NULL, '13752900669', NULL, '采购中心', NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."department"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1") VALUES (6, NULL, 'GL', '管理部', '管理部', NULL, NULL, '13752900669', NULL, '管理部', NULL);</t>
-  </si>
-  <si>
-    <t>--- 用户 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (1, NULL, 'CY01-01', '总厨走龙', '食堂1总厨', NULL, NULL, NULL, NULL, NULL, NULL, 3, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (2, NULL, 'CY02-01', '总厨章杰', '食堂2总厨', NULL, NULL, NULL, NULL, NULL, NULL, 4, NULL, 1, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (3, NULL, 'yg-01', '永辉潘俊', '供应商永辉负责人潘俊', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 1, 6, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (4, NULL, 'vendor01-01', '双福1王池', '供应商双福批发商1负责人王池', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 2, 6, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (5, NULL, 'vendor02-01', '双福2余岳', '供应商双福批发商2负责人余岳', NULL, NULL, NULL, NULL, NULL, NULL, NULL, 3, 6, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (6, NULL, 'CG-01', '采购员熊雪凯', '采购部采购员', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 3, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (7, NULL, 'CG-02', '采购主管陈琛', '采购部主管经理', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 4, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (8, NULL, 'GL-01', '采购总监吴敏', '采购总监', NULL, NULL, NULL, NULL, NULL, NULL, 5, NULL, 5, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (9, NULL, 'GL-02', '雷总', '总经理', NULL, NULL, NULL, NULL, NULL, NULL, 6, NULL, 8, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."usr"("id", "wechat_id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "department_id", "vendor_id", "role_id", "disable") VALUES (10, NULL, 'DEV01-01', '贺彦', '系统管理员', NULL, NULL, NULL, NULL, NULL, NULL, 1, NULL, 7, 0);</t>
-  </si>
-  <si>
-    <t>--- 用户 - 角色关联 ---</t>
-  </si>
-  <si>
-    <t>--- 供应商 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (1, 'yg', '永辉', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (2, 'vendor01', '双福批发商1', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."vendor"("id", "code", "name", "desc", "tel", "tel1", "mobile", "mobile1", "addr", "addr1", "remark", "disable") VALUES (3, 'vendor02', '双福批发商2', NULL, NULL, NULL, '13752900669', NULL, NULL, NULL, NULL, 0);</t>
-  </si>
-  <si>
-    <t>--- 供应商 - 商品类目关联 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (1, 1, 1, 1, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (2, 1, 1, 2, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (3, 1, 1, 3, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (4, 1, 1, 4, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (5, 1, 1, 5, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (6, 1, 1, 6, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (7, 1, 1, 7, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (8, 1, 1, 8, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (9, 1, 1, 9, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (10, 1, 1, 10, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (11, 2, 1, 1, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (12, 2, 1, 2, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (13, 2, 1, 3, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (14, 2, 1, 4, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (15, 2, 1, 5, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (16, 3, 1, 1, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (17, 3, 1, 2, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (18, 3, 1, 3, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (19, 3, 1, 4, NULL);</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (20, 3, 1, 5, NULL);</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1599,7 +1760,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1608,7 +1768,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2641,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K54"/>
+  <dimension ref="B2:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2652,256 +2818,285 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
     <col min="6" max="6" width="86.25" customWidth="1"/>
-    <col min="7" max="7" width="3.25" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="8" max="8" width="41.75" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="24"/>
       <c r="F12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2909,104 +3104,110 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H16" s="4"/>
+      <c r="I16" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="23" t="s">
         <v>148</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="4"/>
+      <c r="I17" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="24"/>
       <c r="F18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="21" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="4"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="4" t="s">
         <v>104</v>
       </c>
@@ -3014,20 +3215,21 @@
         <v>105</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3039,13 +3241,14 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="4" t="s">
         <v>101</v>
       </c>
@@ -3053,33 +3256,35 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>131</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+      <c r="I25" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3089,87 +3294,92 @@
         <v>136</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="4"/>
+      <c r="I26" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="23" t="s">
         <v>134</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="24"/>
       <c r="F28" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="4"/>
+      <c r="I28" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
         <v>135</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -3179,112 +3389,119 @@
         <v>137</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+      <c r="I31" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="22" t="s">
-        <v>227</v>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="24"/>
       <c r="F33" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="16"/>
       <c r="F35" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="5"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="16"/>
       <c r="F36" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="17"/>
       <c r="F37" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3292,47 +3509,50 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="21" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>37</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="4" t="s">
         <v>129</v>
       </c>
@@ -3340,13 +3560,14 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>38</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="4" t="s">
         <v>130</v>
       </c>
@@ -3354,13 +3575,14 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>39</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -3370,13 +3592,14 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>40</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="4" t="s">
         <v>144</v>
       </c>
@@ -3384,71 +3607,76 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>41</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>42</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>153</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="4"/>
+      <c r="I48" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>43</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="4" t="s">
         <v>154</v>
       </c>
@@ -3456,12 +3684,13 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>44</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="4" t="s">
         <v>155</v>
       </c>
@@ -3472,12 +3701,13 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>45</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="4" t="s">
         <v>156</v>
       </c>
@@ -3486,24 +3716,26 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>46</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>47</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -3514,12 +3746,13 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>48</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="4" t="s">
         <v>152</v>
       </c>
@@ -3528,9 +3761,15 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D43:D45"/>
     <mergeCell ref="C25:C45"/>
@@ -3547,11 +3786,6 @@
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3575,7 +3809,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3865,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3873,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3889,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3666,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A111"/>
+  <dimension ref="A2:A134"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="W109" sqref="W109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3677,454 +3911,564 @@
     <col min="1" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>252</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>260</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>262</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>264</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>283</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18" t="s">
-        <v>292</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>292</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
-        <v>293</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="18" t="s">
-        <v>309</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="18" t="s">
-        <v>312</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="18" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="18" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="18" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -29,7 +29,59 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+插入pruchasing_audit
+更新pruchasing_plan
+purchasing_plan_detail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+插入pruchasing_vendor
+更新pruchasing_plan
+pruchasing_plan_detail(单价\更新时间)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="E49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,104 +133,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-purchasing_plan
-purchasing_plan_detail</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-插入pruchasing_audit
-更新pruchasing_plan
-purchasing_plan_detail</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-插入pruchasing_vendor
-更新pruchasing_plan
-pruchasing_plan_detail(单价\更新时间)</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="389">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,26 +652,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报价单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报价详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报价记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购单列表【需修改】分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,10 +668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门名称、采购编号、待初审的采购明细条目（分页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报价筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毛菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,26 +692,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>收货单列表（当前部门、待收货状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>收货管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收货单明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单列表（当前部门、待收货状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收货单确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,22 +712,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存报表(用于盘存)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>入库盘点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报价单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交价格需二次确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,30 +724,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_biz_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_plan_detail_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id = 2 OR purchasing_state_id = 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库视图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_goods_class_quote_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每个采购单的商品列表筛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -896,10 +796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_order_list_4_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,34 +840,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食材分类(来自永辉名录)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_plan_count_4_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购明细列表（商品名称、数量、单位）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购明细列表（商品名称、数量、单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按商品小类分组（分组上有该类型下条目数量）外层结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_plan_list_4_audit2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_purchasing_plan_list_4_audit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,38 +868,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_vendor_goods_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中供应商小计价格列表，确定提交后生成一条purchasing_plan_vendor记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>view_purchasing_plan_detail_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_vendor_goods_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中供应商小计价格列表，确定提交后生成一条purchasing_plan_vendor记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_count_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过复审，前台验证通过后 生成订单、订单明细、采购审核记录，更新采购状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,42 +900,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_biz_type_4_vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_goods_quote_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价单显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价单新增（第一次）,报价单更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vendor_id=p1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vendor_id=p1,biz_type_id=p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按采购类型选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商有自己的采购大类关联下拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初审驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1076,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产生商品类目与供应商关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (1, '01', '餐饮食材', '餐饮食材', 0);</t>
   </si>
   <si>
@@ -1368,14 +1212,6 @@
   </si>
   <si>
     <t>view_biz_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBizTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1531,12 +1367,314 @@
     <t>view_purchasing_plan_list_4_dept_need_modify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GetPOLists4Dept(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_id = p1, purchasing_order_id = p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPODetailLists4Dept(int POid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count_4_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4Audit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_goods_class_group_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetalGoodsCloassGroupCount(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasing_plan_id =p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_audit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_detail_count_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_count_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsClassQuoteCount(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按筛选条件及商品id，获取对应商品的供应商报价列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_list_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最近3个月供应商报价记录列表(分页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static DataTable GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照采购类型(可多选)、采购项、时间下载excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入筛选条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据筛选条件，按统计分商品类目的报价条目数量统计，外层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按筛选条件及商品id，获取供应商数量列表(按商品id排序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据筛选条件，获取按商品的报价范围列表(按商品id排序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单状态列表，按时间顺序(分页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商报表(用于付款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购项匹配 商品类目名称及、商品名称需要上下联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统表(用于内部对账)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购部门 采购类型 采购金额 采购时间 供应商)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细表(用于内部对账)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按供应商 采购类型 采购项目 单价 数量 小计金额 采购时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购部门 采购类型 采购项目 采购金额 供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商有自己的采购大类关联下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示待报价商品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交价格需二次确认 新增一套新的报价记录 并将上一条设置为禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表（按时间倒叙、分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部门 采购类型 采购项目 数量 入库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_stock_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where group by goods_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes
+GetGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebAPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes
+GetGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,6 +1781,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1658,7 +1811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1685,54 +1838,18 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1743,59 +1860,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2079,17 +2186,17 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2097,7 +2204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="C5">
         <v>1.1000000000000001</v>
       </c>
@@ -2105,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="C6">
         <v>1.2</v>
       </c>
@@ -2113,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="C7">
         <v>1.3</v>
       </c>
@@ -2121,7 +2228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2129,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="C9">
         <v>2.1</v>
       </c>
@@ -2137,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="C10">
         <v>2.2000000000000002</v>
       </c>
@@ -2145,7 +2252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>3</v>
       </c>
@@ -2153,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="C12">
         <v>3.1</v>
       </c>
@@ -2161,7 +2268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="C13">
         <v>3.2</v>
       </c>
@@ -2169,7 +2276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>4</v>
       </c>
@@ -2177,12 +2284,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>1</v>
       </c>
@@ -2190,7 +2297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>2</v>
       </c>
@@ -2198,7 +2305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>3</v>
       </c>
@@ -2206,7 +2313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>4</v>
       </c>
@@ -2214,7 +2321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="C21">
         <v>4.0999999999999996</v>
       </c>
@@ -2222,7 +2329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="C22">
         <v>4.2</v>
       </c>
@@ -2230,7 +2337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="B23">
         <v>5</v>
       </c>
@@ -2238,7 +2345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="C24">
         <v>5.0999999999999996</v>
       </c>
@@ -2246,7 +2353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>6</v>
       </c>
@@ -2254,12 +2361,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27">
         <v>1</v>
       </c>
@@ -2267,7 +2374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28">
         <v>2</v>
       </c>
@@ -2275,7 +2382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4">
       <c r="B29">
         <v>3</v>
       </c>
@@ -2283,7 +2390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4">
       <c r="B30">
         <v>3</v>
       </c>
@@ -2291,12 +2398,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4">
       <c r="B34">
         <v>1</v>
       </c>
@@ -2304,12 +2411,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4">
       <c r="B38">
         <v>1</v>
       </c>
@@ -2317,7 +2424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4">
       <c r="B39">
         <v>2</v>
       </c>
@@ -2325,7 +2432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4">
       <c r="C40">
         <v>2.1</v>
       </c>
@@ -2333,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4">
       <c r="C41">
         <v>2.2000000000000002</v>
       </c>
@@ -2356,29 +2463,29 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -2389,13 +2496,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="C7" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="C8" t="s">
         <v>64</v>
       </c>
@@ -2403,7 +2510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -2412,22 +2519,22 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="C11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2435,12 +2542,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -2454,7 +2561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -2465,71 +2572,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="C18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2560,14 +2667,14 @@
       <selection activeCell="B18" sqref="B18:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="83.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2578,7 +2685,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -2586,7 +2693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -2597,7 +2704,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -2608,7 +2715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>83</v>
       </c>
@@ -2616,22 +2723,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="C10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
         <v>79</v>
       </c>
@@ -2639,12 +2746,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>95</v>
       </c>
@@ -2652,7 +2759,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="C14" t="s">
         <v>96</v>
       </c>
@@ -2660,12 +2767,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="E15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>97</v>
       </c>
@@ -2673,7 +2780,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>109</v>
       </c>
@@ -2684,7 +2791,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="C19" t="s">
         <v>110</v>
       </c>
@@ -2695,12 +2802,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="E20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="C21" t="s">
         <v>99</v>
       </c>
@@ -2708,47 +2815,47 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="E22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="E23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="E24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="D25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="E26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="D27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="E28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="C29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="C30" t="s">
         <v>104</v>
       </c>
@@ -2759,7 +2866,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="D31" t="s">
         <v>104</v>
       </c>
@@ -2767,7 +2874,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="C32" t="s">
         <v>113</v>
       </c>
@@ -2778,22 +2885,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4">
       <c r="D33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>81</v>
       </c>
@@ -2807,985 +2914,1151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L54"/>
+  <dimension ref="B2:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
     <col min="6" max="6" width="86.25" customWidth="1"/>
-    <col min="7" max="7" width="33.875" customWidth="1"/>
-    <col min="8" max="8" width="41.75" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="91.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
+      <c r="B2" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="H2" s="4" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="C3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>314</v>
-      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="4" spans="2:10" ht="28.5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>164</v>
+        <v>381</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>379</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="C6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="I6" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="8" spans="2:10">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="5"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="9" spans="2:10">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="10" spans="2:10">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="5"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="12" spans="2:10">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="13" spans="2:10">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="14" spans="2:10">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="4" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="2" customFormat="1">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" s="2" customFormat="1">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" s="12" customFormat="1">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" s="12" customFormat="1">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" s="12" customFormat="1">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="8" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26">
+        <v>331</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="4" t="s">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27">
+        <v>187</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="23" t="s">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28">
+        <v>185</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" s="2" customFormat="1">
+      <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" s="2" customFormat="1">
+      <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="16" t="s">
-        <v>222</v>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30">
+    <row r="30" spans="2:10" s="2" customFormat="1">
+      <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="17" t="s">
-        <v>221</v>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>211</v>
+        <v>359</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31">
+    <row r="31" spans="2:10">
+      <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26" t="s">
-        <v>135</v>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="32" spans="2:10">
+      <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="24"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="F33" s="4" t="s">
-        <v>195</v>
+        <v>361</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="16" t="s">
-        <v>224</v>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>205</v>
+        <v>363</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
+    <row r="35" spans="2:10">
+      <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39">
+      <c r="C37" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" s="3" customFormat="1">
+      <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="5"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4">
+        <v>38</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="5" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>37</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>38</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4">
+        <v>40</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>39</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>41</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>42</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" s="4"/>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4">
+        <v>44</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4">
+        <v>46</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="I48" s="8" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>43</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="4">
+        <v>47</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>44</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="4" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>45</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="4">
+        <v>49</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>46</v>
-      </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="H51" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>47</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+    <row r="53" spans="2:12">
+      <c r="B53" s="4">
+        <v>51</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>48</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+    <row r="54" spans="2:12">
+      <c r="B54" s="4">
+        <v>52</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="J54" s="4"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="4">
+        <v>53</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="4">
+        <v>54</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="4">
+        <v>55</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="4">
+        <v>56</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="F20:F21"/>
+  <mergeCells count="26">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C37:C58"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C12:C36"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C25:C45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C3:C24"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3802,94 +4075,94 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3906,569 +4179,569 @@
       <selection activeCell="W109" sqref="W109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="18"/>
+    <col min="1" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="15" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="15" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="15" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="15" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="15" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="18" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
-        <v>293</v>
+    <row r="134" spans="1:1">
+      <c r="A134" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="核心业务功能" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" shapeId="0">
+    <comment ref="I36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0" shapeId="0">
+    <comment ref="E48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="388">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,10 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门名称、采购编号、待复审的采购明细条目（分页）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待审采购单（初审）列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,14 +736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goods_class_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选中一条记录后新增第1条商品明细 生成采购主记录 生成采购明细记录并关联 主记录item_count为1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,10 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食材分类(来自永辉名录)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按商品小类分组（分组上有该类型下条目数量）外层结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_purchasing_plan_list_4_audit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,26 +836,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>purchasing_plan_id =p1，vendor_id为空为未指定供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过初审 新增一条audit记录audiy_type为1 并将当前采购计划状态更新为05的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_purchasing_plan_vendor_goods_sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,18 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_biz_type_4_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendor_id=p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按采购类型选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初审驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1267,17 +1215,7 @@
     <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (3, '03', '已发货', '供应商备货完成已经发货出来');</t>
   </si>
   <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (4, '04', '已收货', '部门确认正常收货');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (5, '05', '收货不足量', '部门但为达到收货单计划量但收货');</t>
-  </si>
-  <si>
     <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (6, '06', '其他', '预留状态');</t>
-  </si>
-  <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1376,14 +1314,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>department_id = p1, purchasing_order_id = p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetPODetailLists4Dept(int POid)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GetGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count_4_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_audit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_detail_count_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsClassQuoteCount(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按筛选条件及商品id，获取对应商品的供应商报价列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_list_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最近3个月供应商报价记录列表(分页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照采购类型(可多选)、采购项、时间下载excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入筛选条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据筛选条件，按统计分商品类目的报价条目数量统计，外层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按筛选条件及商品id，获取供应商数量列表(按商品id排序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据筛选条件，获取按商品的报价范围列表(按商品id排序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单状态列表，按时间顺序(分页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商报表(用于付款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购项匹配 商品类目名称及、商品名称需要上下联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统表(用于内部对账)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购部门 采购类型 采购金额 采购时间 供应商)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细表(用于内部对账)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按供应商 采购类型 采购项目 单价 数量 小计金额 采购时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购部门 采购类型 采购项目 采购金额 供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交价格需二次确认 新增一套新的报价记录 并将上一条设置为禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表（按时间倒叙、分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部门 采购类型 采购项目 数量 入库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_stock_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GetBizTypes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,259 +1518,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingPlanCount4All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_count_4_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanCount4Audit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_goods_class_group_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanDetalGoodsCloassGroupCount(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasing_plan_id =p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_audit2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanCount4All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods_class_quote_detail_count_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_detail_count_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods_class_quote_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsClassQuoteCount(int bizTypeId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按筛选条件及商品id，获取对应商品的供应商报价列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_quote_list_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取最近3个月供应商报价记录列表(分页)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public static DataTable GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购明细列表（商品名称、数量、单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照采购类型(可多选)、采购项、时间下载excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入筛选条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据筛选条件，按统计分商品类目的报价条目数量统计，外层结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按筛选条件及商品id，获取供应商数量列表(按商品id排序)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据筛选条件，获取按商品的报价范围列表(按商品id排序)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初审采购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审采购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单状态列表，按时间顺序(分页)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商报表(用于付款)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购项匹配 商品类目名称及、商品名称需要上下联动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统表(用于内部对账)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按采购部门 采购类型 采购金额 采购时间 供应商)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细表(用于内部对账)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按供应商 采购类型 采购项目 单价 数量 小计金额 采购时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按采购部门 采购类型 采购项目 采购金额 供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商有自己的采购大类关联下拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示待报价商品价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交价格需二次确认 新增一套新的报价记录 并将上一条设置为禁用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单列表（按时间倒叙、分页）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购部门 采购类型 采购项目 数量 入库时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_stock_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>where group by goods_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBizTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoods</t>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebAPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1653,28 +1535,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebAPI</t>
+    <t>GetStock(int deparmentId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_detail_list_4_vendor_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_pruchasing_order_detail_list_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GetBizTypes
 GetGoods</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4Audit2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4All()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4Audit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称、采购编号、待复审的采购明细条目（分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_goods_class_list_with_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassListWithVendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待复审明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入货物分类ID，取得根据该类目下所有商品对应供应商报价的合计，以供应商分组的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上？？需要再考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过订单展开订单详情列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_pruchasing_order_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (4, '04', '收货中', '不完全收货状态');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (5, '05', '已收货', '部门确认正常收货完成');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,8 +1792,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1810,8 +1831,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1843,13 +1869,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1875,19 +1917,19 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1895,13 +1937,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2914,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L58"/>
+  <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2930,1135 +2984,1058 @@
     <col min="6" max="6" width="86.25" customWidth="1"/>
     <col min="7" max="7" width="23.375" customWidth="1"/>
     <col min="8" max="8" width="91.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" ht="28.5">
+    </row>
+    <row r="4" spans="2:9" ht="28.5">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>377</v>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="H4" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="4" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="H5" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>355</v>
+      <c r="D6" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>359</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="H6" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>366</v>
+        <v>339</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>341</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10">
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>372</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="4" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="H9" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>375</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="H10" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>129</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="2" customFormat="1">
+      <c r="B14" s="4">
+        <v>14</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" s="2" customFormat="1">
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4">
+        <v>16</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="12" customFormat="1">
+      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="12" customFormat="1">
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="12" customFormat="1">
+      <c r="B19" s="4">
+        <v>19</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4">
+        <v>20</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="4">
+        <v>21</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="4">
+        <v>22</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4">
+        <v>23</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="4">
+        <v>24</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="F25" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:9" s="2" customFormat="1">
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" s="2" customFormat="1">
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="4">
-        <v>12</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="4">
-        <v>13</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="2" customFormat="1">
-      <c r="B16" s="4">
-        <v>14</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" s="2" customFormat="1">
-      <c r="B17" s="4">
-        <v>15</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" s="12" customFormat="1">
-      <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" s="12" customFormat="1">
-      <c r="B20" s="4">
-        <v>18</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" s="12" customFormat="1">
-      <c r="B21" s="4">
-        <v>19</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="4">
-        <v>20</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="4">
-        <v>21</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="4">
-        <v>22</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="4">
-        <v>23</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="4">
-        <v>24</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="4">
-        <v>25</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="2:10" s="2" customFormat="1">
-      <c r="B28" s="4">
-        <v>26</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" s="2" customFormat="1">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" s="2" customFormat="1">
       <c r="B29" s="4">
-        <v>27</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22" t="s">
-        <v>356</v>
+        <v>28</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" s="2" customFormat="1">
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="4">
-        <v>28</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10">
+        <v>29</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="4">
-        <v>29</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>341</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="4" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="H31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="4">
-        <v>30</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="18" t="s">
+        <v>313</v>
+      </c>
       <c r="E32" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>331</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="2:10">
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="4">
-        <v>31</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18" t="s">
-        <v>342</v>
+        <v>32</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10">
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="4">
-        <v>32</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>343</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="4" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="2:10">
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="4">
-        <v>33</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="4" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10">
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="4">
-        <v>34</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="H36" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="3" customFormat="1">
       <c r="B37" s="4">
-        <v>35</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="2:10" s="3" customFormat="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="4">
-        <v>36</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
-        <v>382</v>
+        <v>37</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="2:10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="4">
-        <v>37</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="I39" s="17" t="s">
+      <c r="F39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="4">
-        <v>38</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="25"/>
       <c r="F40" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="2:10">
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="4">
-        <v>39</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="25"/>
       <c r="F41" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="2:10">
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="4">
-        <v>40</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="25"/>
       <c r="F42" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="2:10">
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="4">
-        <v>41</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="2:10">
+        <v>42</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="4">
-        <v>42</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="4">
-        <v>43</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="2:10">
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="4">
-        <v>44</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="2:10">
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="4">
-        <v>45</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="G47" s="6"/>
+      <c r="H47" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" s="4">
-        <v>46</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="27" t="s">
-        <v>117</v>
+        <v>47</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
+        <v>296</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
       <c r="B49" s="4">
-        <v>47</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="E49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
+        <v>298</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50" s="4">
-        <v>48</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="4">
-        <v>49</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="4">
-        <v>50</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="5" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="2:12">
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="4">
-        <v>51</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="2:12">
+        <v>52</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="4">
-        <v>52</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="4">
+        <v>54</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="4">
-        <v>53</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="2:12">
+      <c r="F55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="8"/>
+      <c r="K55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="4">
-        <v>54</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L56" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="4">
-        <v>55</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>114</v>
+        <v>56</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="4">
-        <v>56</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
+    <mergeCell ref="C36:C57"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C11:C35"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="D56:D57"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C37:C58"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C12:C36"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4082,7 +4059,7 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4090,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4098,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4106,7 +4083,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4114,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4122,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4130,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4138,7 +4115,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4146,7 +4123,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4154,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4162,7 +4139,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4175,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A134"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="W109" sqref="W109"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4186,562 +4163,562 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="15" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="15" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="15" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="15" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="15" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="15" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="15" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="15" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="15" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="15" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="15" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="15" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="15" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="15" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="15" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="15" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="15" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="15" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="15" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="15" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="15" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="15" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="15" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="15" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="15" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="15" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="15" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="15" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="15" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="15" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="15" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="15" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="15" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="15" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="15" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="15" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="15" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="15" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="15" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="15" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="15" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="15" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="15" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="15" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="15" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="15" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="15" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="15" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="15" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="15" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="15" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="15" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="15" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="15" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="15" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="15" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="15" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="15" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="15" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="15" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="15" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="15" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="15" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="15" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="15" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="15" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="15" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="15" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="15" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="15" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="15" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="15" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="15" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="15" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="15" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="15" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="15" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="15" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="15" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="15" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="15" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="15" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="15" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="15" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="15" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="15" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="15" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="15" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="15" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="15" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="15" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="15" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="15" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="15" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="15" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="15" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="15" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="15" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="15" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="核心业务功能" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0">
+    <comment ref="I37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0">
+    <comment ref="E49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="397">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,10 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食材分类(来自永辉名录)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1147,162 +1143,436 @@
     <t>INSERT INTO "main"."rs_vendor"("id", "vendor_id", "biz_type_id", "goods_class_id", "goods_id") VALUES (20, 3, 1, 5, NULL);</t>
   </si>
   <si>
+    <t>BLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_unconfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--- 采购计划状态 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (1, '01', '需求草稿', '部门采购需求计划草稿');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (2, '02', '提初审', '部门采购需求计划提交等待初审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (3, '03', '初审驳回', '部门采购需求计划初审驳回');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (4, '04', '再提初审', '部门采购需求计划初审驳回后重新提交待初审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (5, '05', '初审通过', '部门采购计划初审通过，即复审草稿');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (6, '06', '提复审', '部门采购计划初审通过等待复审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (7, '07', '复审驳回', '部门采购计划复审驳回');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (8, '08', '再提复审', '部门采购计划复审驳回后重新提交待复审');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (9, '09', '复审通过', '部门采购计划复审通过采购订单生成');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (10, '10', '收货入库', '部门采购计划复审通过');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (11, '11', '其他', '其他特殊状态');</t>
+  </si>
+  <si>
+    <t>--- 采购订单状态 ---</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (1, '01', '待供应商确认', '待供应商确认');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (2, '02', '供应商已确认', '供应商确认后即为备货中状态');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (3, '03', '已发货', '供应商备货完成已经发货出来');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (6, '06', '其他', '预留状态');</t>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_need_modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list_4_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPODetailLists4Dept(int POid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_count_4_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_audit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_detail_count_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_goods_class_quote_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsClassQuoteCount(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按筛选条件及商品id，获取对应商品的供应商报价列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_list_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最近3个月供应商报价记录列表(分页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照采购类型(可多选)、采购项、时间下载excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入筛选条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据筛选条件，按统计分商品类目的报价条目数量统计，外层结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按筛选条件及商品id，获取供应商数量列表(按商品id排序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据筛选条件，获取按商品的报价范围列表(按商品id排序)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单状态列表，按时间顺序(分页)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商报表(用于付款)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购项匹配 商品类目名称及、商品名称需要上下联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统表(用于内部对账)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购部门 采购类型 采购金额 采购时间 供应商)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细表(用于内部对账)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按供应商 采购类型 采购项目 单价 数量 小计金额 采购时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按采购部门 采购类型 采购项目 采购金额 供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交价格需二次确认 新增一套新的报价记录 并将上一条设置为禁用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表（按时间倒叙、分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部门 采购类型 采购项目 数量 入库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_stock_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebAPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStock(int deparmentId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_detail_list_4_vendor_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_pruchasing_order_detail_list_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4Audit2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4All()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4Audit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称、采购编号、待复审的采购明细条目（分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_goods_class_list_with_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassListWithVendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待复审明细列表（商品名称、数量、单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入货物分类ID，取得根据该类目下所有商品对应供应商报价的合计，以供应商分组的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上？？需要再考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过订单展开订单详情列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_pruchasing_order_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (4, '04', '收货中', '不完全收货状态');</t>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (5, '05', '已收货', '部门确认正常收货完成');</t>
+  </si>
+  <si>
     <t>view_purchasing_plan_count_4_dept</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingPlanCount4Dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_biz_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_dept_unconfirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--- 采购计划状态 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (1, '01', '需求草稿', '部门采购需求计划草稿');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (2, '02', '提初审', '部门采购需求计划提交等待初审');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (3, '03', '初审驳回', '部门采购需求计划初审驳回');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (4, '04', '再提初审', '部门采购需求计划初审驳回后重新提交待初审');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (5, '05', '初审通过', '部门采购计划初审通过，即复审草稿');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (6, '06', '提复审', '部门采购计划初审通过等待复审');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (7, '07', '复审驳回', '部门采购计划复审驳回');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (8, '08', '再提复审', '部门采购计划复审驳回后重新提交待复审');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (9, '09', '复审通过', '部门采购计划复审通过采购订单生成');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (10, '10', '收货入库', '部门采购计划复审通过');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_state"("id", "code", "name", "desc") VALUES (11, '11', '其他', '其他特殊状态');</t>
-  </si>
-  <si>
-    <t>--- 采购订单状态 ---</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (1, '01', '待供应商确认', '待供应商确认');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (2, '02', '供应商已确认', '供应商确认后即为备货中状态');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (3, '03', '已发货', '供应商备货完成已经发货出来');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (6, '06', '其他', '预留状态');</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GetPurchasingPlanLists4Dept(department_id, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GetPurchasingPlanLists4Dept(department_id, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GetPurchasingPlanLists4Dept(department_id, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_dept_need_modify</t>
+    <t>GetPurchasingPlanCount4Dept()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanLists4Dept(int departmentID, int state)  state = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增采购单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需修改的采购单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得采购单明细(查看/编辑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1310,131 +1580,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_order_list_4_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPODetailLists4Dept(int POid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_count_4_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_audit2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods_class_quote_detail_count_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_goods_class_quote_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsClassQuoteCount(int bizTypeId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按筛选条件及商品id，获取对应商品的供应商报价列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_quote_list_all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取最近3个月供应商报价记录列表(分页)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照采购类型(可多选)、采购项、时间下载excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入筛选条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据筛选条件，按统计分商品类目的报价条目数量统计，外层结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按筛选条件及商品id，获取供应商数量列表(按商品id排序)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据筛选条件，获取按商品的报价范围列表(按商品id排序)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初审采购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审采购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单状态列表，按时间顺序(分页)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商报表(用于付款)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复审驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回（输入退回原因 确认提交） 新增一条audit记录audiy_type为2</t>
+    <t>view_statics_po_goods_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1442,228 +1588,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购项匹配 商品类目名称及、商品名称需要上下联动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统表(用于内部对账)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按采购部门 采购类型 采购金额 采购时间 供应商)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细表(用于内部对账)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按供应商 采购类型 采购项目 单价 数量 小计金额 采购时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按采购部门 采购类型 采购项目 采购金额 供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交价格需二次确认 新增一套新的报价记录 并将上一条设置为禁用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照订单类型(商品大类)、订单日期范围、订单状态筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单列表（按时间倒叙、分页）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购部门 采购类型 采购项目 数量 入库时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_stock_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBizTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebAPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBizTypes
-GetGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetStock(int deparmentId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_quote_detail_list_4_vendor_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_order_list_4_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_pruchasing_order_detail_list_4_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBizTypes
-GetGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBizTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanCount4Audit2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanCount4All()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanCount4Audit()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBizTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称、采购编号、待复审的采购明细条目（分页）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_goods_class_list_with_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanGoodsClassListWithVendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待复审明细列表（商品名称、数量、单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入货物分类ID，取得根据该类目下所有商品对应供应商报价的合计，以供应商分组的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上？？需要再考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中采购中的某一商品类目，计算出对应类目的供应商的小计价格列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_order_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过订单展开订单详情列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderList()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_pruchasing_order_detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderDetailList(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (4, '04', '收货中', '不完全收货状态');</t>
-  </si>
-  <si>
-    <t>INSERT INTO "main"."purchasing_order_state"("id", "code", "name", "desc") VALUES (5, '05', '已收货', '部门确认正常收货完成');</t>
+    <t>统计值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type
+view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type
+view_goods
+view_department
+view_goods_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes()
+GetGoods()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoods()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes()
+GetGoods()
+GetDepartments()
+GetGoodsClass()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes()
+GetGoods()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_biz_type
+view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1769,15 +1741,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="11"/>
@@ -1817,6 +1780,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1837,7 +1808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1882,16 +1853,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1901,7 +1896,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1910,12 +1904,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1928,29 +1920,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2968,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K57"/>
+  <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2989,7 +3002,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>160</v>
@@ -3004,10 +3017,10 @@
         <v>163</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>146</v>
@@ -3017,19 +3030,19 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>352</v>
+      <c r="D3" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="8" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -3037,75 +3050,75 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>356</v>
+      <c r="E4" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>364</v>
+      <c r="H4" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>347</v>
+        <v>339</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>326</v>
+      <c r="D6" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>357</v>
+        <v>346</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
@@ -3113,17 +3126,17 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
-        <v>341</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>332</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
@@ -3131,50 +3144,50 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="8" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="8" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>129</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3183,19 +3196,19 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>302</v>
+        <v>354</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>320</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>312</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>133</v>
@@ -3205,43 +3218,43 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>172</v>
+        <v>355</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="4">
-        <v>12</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>177</v>
+      <c r="H13" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="2" customFormat="1">
       <c r="B14" s="4">
-        <v>14</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20" t="s">
-        <v>181</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3249,15 +3262,15 @@
     </row>
     <row r="15" spans="2:9" s="2" customFormat="1">
       <c r="B15" s="4">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20" t="s">
-        <v>180</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3265,235 +3278,237 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4">
-        <v>16</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="I16" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="I16" s="33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="12" customFormat="1">
+    <row r="17" spans="2:9" s="11" customFormat="1">
       <c r="B17" s="4">
-        <v>17</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="12" customFormat="1">
+        <v>299</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="11" customFormat="1">
       <c r="B18" s="4">
-        <v>18</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="12" customFormat="1">
+        <v>298</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="11" customFormat="1">
       <c r="B19" s="4">
-        <v>19</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="4">
-        <v>20</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="4">
-        <v>21</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>310</v>
+        <v>352</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="4">
-        <v>22</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>321</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
+        <v>313</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>303</v>
+        <v>353</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="4">
-        <v>23</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24" t="s">
-        <v>182</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>372</v>
+        <v>358</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
-        <v>24</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="4" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>177</v>
+      <c r="H24" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="4">
-        <v>25</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24" t="s">
-        <v>329</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>175</v>
+        <v>363</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="4"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="4" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" s="2" customFormat="1">
       <c r="B27" s="4">
-        <v>26</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" s="2" customFormat="1">
       <c r="B28" s="4">
-        <v>27</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="20" t="s">
-        <v>327</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3501,15 +3516,15 @@
     </row>
     <row r="29" spans="2:9" s="2" customFormat="1">
       <c r="B29" s="4">
-        <v>28</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="20" t="s">
-        <v>328</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="17" t="s">
+        <v>320</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -3517,93 +3532,97 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="4">
-        <v>29</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23" t="s">
-        <v>312</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="8" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
-        <v>30</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
-        <v>31</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="18" t="s">
-        <v>313</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="H32" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="4">
-        <v>32</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>314</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>334</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="4" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4">
-        <v>33</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>306</v>
+      </c>
       <c r="E34" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3611,15 +3630,15 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4">
-        <v>34</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3627,89 +3646,91 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I36" s="16" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" s="3" customFormat="1">
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="I38" s="33" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" s="3" customFormat="1">
-      <c r="B37" s="4">
-        <v>36</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="4">
-        <v>37</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="4">
-        <v>38</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="4">
-        <v>39</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
@@ -3717,13 +3738,13 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="4">
-        <v>40</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
@@ -3731,13 +3752,13 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="4">
-        <v>41</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
@@ -3745,297 +3766,328 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="4">
-        <v>42</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>276</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="4">
-        <v>43</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="4">
-        <v>44</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="4">
-        <v>45</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="22"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="4">
-        <v>46</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>153</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="4">
-        <v>47</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="4" t="s">
-        <v>130</v>
+        <v>46</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>297</v>
+      <c r="H48" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="4">
-        <v>48</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>138</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>299</v>
+        <v>130</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="4">
-        <v>49</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>167</v>
+        <v>48</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4">
-        <v>50</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>383</v>
+      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="4">
-        <v>51</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="4">
-        <v>52</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G53" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="11"/>
+        <v>293</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="4">
-        <v>53</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J54" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="4">
+        <v>53</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="2:11" ht="28.5">
+      <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="4" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="8"/>
-      <c r="K55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="4">
-        <v>55</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="E56" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="4">
-        <v>56</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="I57" s="8"/>
+      <c r="K57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="4">
+        <v>56</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="4">
+        <v>57</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C36:C57"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C11:C35"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="F53:F54"/>
+  <mergeCells count="23">
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D58:D59"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="C37:C59"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C11:C36"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4059,7 +4111,7 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4075,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4083,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4091,7 +4143,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4099,7 +4151,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4115,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4123,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4131,7 +4183,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4139,7 +4191,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4152,573 +4204,573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="15"/>
+    <col min="1" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="15" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="15" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="15" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="15" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="15" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="15" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="15" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="15" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="15" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="15" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="15" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="15" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="15" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="15" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="15" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="15" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="15" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="15" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="15" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="15" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="15" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="15" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="15" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="15" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="15" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="15" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="15" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="15" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="15" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="15" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="15" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="15" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="15" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="15" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="15" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="15" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="15" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="15" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="15" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="15" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="15" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="15" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="15" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="15" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="15" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="15" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="15" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="15" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="15" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="15" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="15" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="15" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="15" t="s">
-        <v>251</v>
+      <c r="A134" s="14" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="401">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1398,10 +1398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1443,10 +1439,6 @@
   </si>
   <si>
     <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1608,11 +1600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetBizTypes()
-GetGoods()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetGoods()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1635,6 +1622,36 @@
   <si>
     <t>view_biz_type
 view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBizTypes()
+GetGoods()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/stocks?DepartmentID=1&amp;StartTime=2018-11-01 00:00:00&amp;EndTime=2018-11-20 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/biztypes
+api/goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/StockIn4Dept?bizTypeId=1&amp;startTime=2018-01-01 00:00:00&amp;endTime=2018-11-21 00:00:00&amp;listIntGoodsIds=1,2,3&amp;deparmentId=1&amp;PageIndex=0&amp;PageSize=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,7 +1903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1932,23 +1949,23 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,11 +1975,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2983,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3002,7 +3022,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>160</v>
@@ -3017,7 +3037,7 @@
         <v>163</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>271</v>
@@ -3030,19 +3050,21 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="35" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="H3" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -3050,35 +3072,39 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="18" t="s">
+        <v>396</v>
+      </c>
       <c r="H4" s="21" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="4" t="s">
         <v>337</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="H5" s="8" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>338</v>
@@ -3088,32 +3114,34 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="35" t="s">
         <v>318</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="H6" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="4" t="s">
         <v>330</v>
       </c>
@@ -3128,8 +3156,8 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>332</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -3146,8 +3174,8 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="4" t="s">
         <v>143</v>
       </c>
@@ -3156,35 +3184,35 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>348</v>
+        <v>400</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="35" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -3196,7 +3224,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>294</v>
@@ -3206,8 +3234,8 @@
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>312</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3218,7 +3246,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>171</v>
@@ -3228,8 +3256,8 @@
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="25" t="s">
         <v>131</v>
       </c>
@@ -3238,7 +3266,7 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>176</v>
@@ -3248,8 +3276,8 @@
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="17" t="s">
         <v>180</v>
       </c>
@@ -3264,8 +3292,8 @@
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="17" t="s">
         <v>179</v>
       </c>
@@ -3280,8 +3308,8 @@
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3292,9 +3320,9 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I16" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I16" s="29" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3302,9 +3330,9 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -3314,7 +3342,7 @@
       <c r="H17" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="30" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3322,9 +3350,9 @@
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="6" t="s">
         <v>311</v>
       </c>
@@ -3332,7 +3360,7 @@
       <c r="H18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="30" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3340,9 +3368,9 @@
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="30"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="6" t="s">
         <v>310</v>
       </c>
@@ -3354,8 +3382,8 @@
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
@@ -3372,8 +3400,8 @@
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
@@ -3382,9 +3410,9 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I21" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="I21" s="29" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3392,21 +3420,21 @@
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>313</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I22" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="I22" s="29" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3414,9 +3442,9 @@
       <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="34" t="s">
         <v>181</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -3424,27 +3452,27 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="I24" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="I24" s="31" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3452,19 +3480,19 @@
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="31" t="s">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="34" t="s">
         <v>321</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="I25" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3472,15 +3500,15 @@
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="31"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I26" s="8"/>
     </row>
@@ -3488,9 +3516,9 @@
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="31"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="5" t="s">
         <v>175</v>
       </c>
@@ -3502,8 +3530,8 @@
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="17" t="s">
         <v>319</v>
       </c>
@@ -3518,8 +3546,8 @@
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="17" t="s">
         <v>320</v>
       </c>
@@ -3534,8 +3562,8 @@
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
         <v>304</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3546,76 +3574,76 @@
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="4" t="s">
         <v>317</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="15" t="s">
         <v>305</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>323</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="20"/>
       <c r="E33" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="18"/>
       <c r="I33" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="35"/>
+      <c r="D34" s="35" t="s">
         <v>306</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3632,8 +3660,8 @@
       <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="4" t="s">
         <v>326</v>
       </c>
@@ -3648,8 +3676,8 @@
       <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="4" t="s">
         <v>315</v>
       </c>
@@ -3664,7 +3692,7 @@
       <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="35" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -3676,31 +3704,31 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="3" customFormat="1">
       <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>378</v>
+      <c r="E38" s="39" t="s">
+        <v>376</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="I38" s="33" t="s">
+      <c r="H38" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I38" s="29" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3708,17 +3736,17 @@
       <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="29"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="4" t="s">
         <v>147</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I39" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="I39" s="29" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3726,9 +3754,9 @@
       <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="29"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="5" t="s">
         <v>149</v>
       </c>
@@ -3740,9 +3768,9 @@
       <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="29"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="5" t="s">
         <v>151</v>
       </c>
@@ -3754,9 +3782,9 @@
       <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="29"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="5" t="s">
         <v>150</v>
       </c>
@@ -3768,9 +3796,9 @@
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="29"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="5" t="s">
         <v>152</v>
       </c>
@@ -3782,11 +3810,11 @@
       <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="28"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -3794,7 +3822,7 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>273</v>
@@ -3804,9 +3832,9 @@
       <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="37"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="5" t="s">
         <v>157</v>
       </c>
@@ -3818,9 +3846,9 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="28"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="37"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="5" t="s">
         <v>156</v>
       </c>
@@ -3832,9 +3860,9 @@
       <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="28"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="37"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="5" t="s">
         <v>155</v>
       </c>
@@ -3846,7 +3874,7 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="37"/>
       <c r="E48" s="19" t="s">
         <v>117</v>
@@ -3856,7 +3884,7 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>153</v>
@@ -3866,7 +3894,7 @@
       <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="28"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="37"/>
       <c r="E49" s="4" t="s">
         <v>130</v>
@@ -3876,9 +3904,9 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I49" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="I49" s="29" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3886,19 +3914,19 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="28"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="37"/>
       <c r="E50" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="I50" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="I50" s="31" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3906,13 +3934,13 @@
       <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="28"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="38"/>
       <c r="E51" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="4"/>
@@ -3922,8 +3950,8 @@
       <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28" t="s">
+      <c r="C52" s="35"/>
+      <c r="D52" s="35" t="s">
         <v>138</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -3932,7 +3960,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>292</v>
@@ -3942,9 +3970,9 @@
       <c r="B53" s="4">
         <v>51</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="31" t="s">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="34" t="s">
         <v>139</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -3962,9 +3990,9 @@
       <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="31"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="5" t="s">
         <v>141</v>
       </c>
@@ -3976,9 +4004,9 @@
       <c r="B55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="31"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="5" t="s">
         <v>166</v>
       </c>
@@ -3990,8 +4018,8 @@
       <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35" t="s">
         <v>104</v>
       </c>
       <c r="E56" s="17" t="s">
@@ -4000,12 +4028,12 @@
       <c r="F56" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>396</v>
+      <c r="G56" s="28"/>
+      <c r="H56" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>393</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
@@ -4014,8 +4042,8 @@
       <c r="B57" s="4">
         <v>55</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="4" t="s">
         <v>104</v>
       </c>
@@ -4033,8 +4061,8 @@
       <c r="B58" s="4">
         <v>56</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28" t="s">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4051,8 +4079,8 @@
       <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="19" t="s">
         <v>101</v>
       </c>
@@ -4065,6 +4093,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D38:D43"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="D58:D59"/>
@@ -4081,18 +4116,15 @@
     <mergeCell ref="C11:C36"/>
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" display="http://localhost:53702/api/StockIn4Dept?bizTypeId=1&amp;startTime=2018-01-01 00:00:00&amp;endTime=2018-11-21 00:00:00&amp;listIntGoodsIds=1,2,3&amp;deparmentId=1&amp;PageIndex=0&amp;PageSize=0"/>
+    <hyperlink ref="G6" r:id="rId2" display="http://localhost:53702/api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4325,12 +4357,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:1">

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="418">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,10 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收货单列表（当前部门、待收货状态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收货管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,10 +1210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPODetailLists4Dept(int POid)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_purchasing_plan_count_4_all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1234,10 +1226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetGoodsClassQuoteCount(int bizTypeId, DateTime startTime, DateTime endTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1422,10 +1410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商报价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1434,14 +1418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_pruchasing_order_detail_list_4_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1450,10 +1426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingPlanCount4All()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetPurchasingPlanCount4Audit()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1486,10 +1458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同上？？需要再考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1506,10 +1474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingOrderList()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_pruchasing_order_detail_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1556,19 +1520,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购单更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPOLists4Dept(int departmentID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1652,6 +1608,118 @@
   </si>
   <si>
     <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4All()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/QuoteDetailList4Vendor2Quote?bizTypeID=1&amp;startTime&amp;endTime=2018-12-01&amp;vendorID=1&amp;PageIndex=0&amp;PageSize=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderDetailList4Vendor?purchasingOrderID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_detail_list_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Audit?PageIndex=1&amp;PageSize=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanDetail?purchasingPlanId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM(int purchasingPlanID, int goodsClassID, List&lt;int&gt; listGoodsID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8&amp;1=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsClassQuoteCount?bizTypeId=1&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorPriceRange?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=1&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=2&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=3&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（当前部门、待收货状态）分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderLists4Dept?departmentID=3&amp;PageIndex=1&amp;PageSize=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList4Dept(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> GetPurchasingOrderDetailList4Dept(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderDetailList4Dept?orderID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderList?PageIndex=1&amp;PageSize=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderDetailList?purchasingOrderID=1&amp;PageIndex=1&amp;PageSize=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1903,7 +1971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1961,9 +2029,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1975,15 +2049,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3003,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3014,57 +3083,57 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="86.25" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="77" customWidth="1"/>
+    <col min="7" max="7" width="37.875" customWidth="1"/>
     <col min="8" max="8" width="91.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -3072,81 +3141,81 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
-        <v>142</v>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34" t="s">
+        <v>141</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="18" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>318</v>
+      <c r="D6" s="34" t="s">
+        <v>315</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
@@ -3156,15 +3225,15 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35" t="s">
-        <v>332</v>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
+        <v>329</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
@@ -3174,69 +3243,75 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>392</v>
+      </c>
       <c r="H9" s="8" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="42" t="s">
+        <v>393</v>
+      </c>
       <c r="H10" s="8" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>129</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="H11" s="8" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
-        <v>312</v>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34" t="s">
+        <v>309</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>133</v>
@@ -3244,45 +3319,49 @@
       <c r="F12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="H12" s="8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="25" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="H13" s="27" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="2" customFormat="1">
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3292,13 +3371,13 @@
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3308,71 +3387,75 @@
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="8" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="11" customFormat="1">
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="39" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="36" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="11" customFormat="1">
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="40"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>308</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="H18" s="7" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="11" customFormat="1">
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
@@ -3382,17 +3465,19 @@
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>298</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="H20" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -3400,115 +3485,119 @@
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
-        <v>313</v>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34" t="s">
+        <v>310</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="34" t="s">
-        <v>181</v>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35" t="s">
+        <v>180</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="H24" s="27" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="34" t="s">
-        <v>321</v>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35" t="s">
+        <v>318</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>355</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="H25" s="8" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I26" s="8"/>
     </row>
@@ -3516,11 +3605,11 @@
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3530,13 +3619,13 @@
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3546,13 +3635,13 @@
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -3562,95 +3651,99 @@
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35" t="s">
-        <v>304</v>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="H30" s="8" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>357</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="H31" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="21" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="20"/>
       <c r="E33" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="18"/>
       <c r="I33" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35" t="s">
-        <v>306</v>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3660,13 +3753,13 @@
       <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3676,13 +3769,13 @@
       <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3692,73 +3785,75 @@
       <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="H37" s="8" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="3" customFormat="1">
       <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="41" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>376</v>
+      <c r="E38" s="36" t="s">
+        <v>367</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="32" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="39"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="8" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="39"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
@@ -3768,11 +3863,11 @@
       <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="39"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
@@ -3782,11 +3877,11 @@
       <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="39"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
@@ -3796,11 +3891,11 @@
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="39"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
@@ -3810,33 +3905,35 @@
       <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="35" t="s">
         <v>116</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="H44" s="8" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="8"/>
@@ -3846,11 +3943,11 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="8"/>
@@ -3860,11 +3957,11 @@
       <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="8"/>
@@ -3874,73 +3971,79 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="37"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="19" t="s">
         <v>117</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="H48" s="8" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="H49" s="8" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="37"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="4" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G50" s="6"/>
+        <v>368</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="H50" s="27" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="38"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="4" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="4"/>
@@ -3950,51 +4053,57 @@
       <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35" t="s">
-        <v>138</v>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+        <v>409</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="H52" s="4" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="4">
         <v>51</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="34" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="H53" s="4" t="s">
-        <v>293</v>
+        <v>413</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
@@ -4004,11 +4113,11 @@
       <c r="B55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
@@ -4018,8 +4127,8 @@
       <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35" t="s">
+      <c r="C56" s="34"/>
+      <c r="D56" s="34" t="s">
         <v>104</v>
       </c>
       <c r="E56" s="17" t="s">
@@ -4030,10 +4139,10 @@
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="32" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
@@ -4042,8 +4151,8 @@
       <c r="B57" s="4">
         <v>55</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="4" t="s">
         <v>104</v>
       </c>
@@ -4054,15 +4163,15 @@
       <c r="H57" s="4"/>
       <c r="I57" s="8"/>
       <c r="K57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="4">
         <v>56</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35" t="s">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4079,13 +4188,13 @@
       <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="19" t="s">
         <v>101</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4093,6 +4202,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="C37:C59"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C11:C36"/>
+    <mergeCell ref="D34:D36"/>
     <mergeCell ref="D52:D55"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E44:E47"/>
@@ -4102,29 +4223,19 @@
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E53:E55"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="C37:C59"/>
-    <mergeCell ref="D16:D21"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C11:C36"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="D34:D36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" display="http://localhost:53702/api/StockIn4Dept?bizTypeId=1&amp;startTime=2018-01-01 00:00:00&amp;endTime=2018-11-21 00:00:00&amp;listIntGoodsIds=1,2,3&amp;deparmentId=1&amp;PageIndex=0&amp;PageSize=0"/>
     <hyperlink ref="G6" r:id="rId2" display="http://localhost:53702/api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3"/>
+    <hyperlink ref="G9" r:id="rId3" display="http://localhost:53702/api/QuoteDetailList4Vendor2Quote?bizTypeID=1&amp;startTime&amp;endTime=2018-12-01&amp;vendorID=1&amp;PageIndex=0&amp;PageSize=0"/>
+    <hyperlink ref="G10" r:id="rId4" display="http://localhost:53702/api/PurchasingOrderDetailList4Vendor?purchasingOrderID=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4143,7 +4254,7 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4159,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4167,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4175,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4183,7 +4294,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4199,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4207,7 +4318,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4215,7 +4326,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4223,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4247,562 +4358,562 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="14" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="14" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -14,6 +14,9 @@
     <sheet name="基础数据" sheetId="5" r:id="rId5"/>
     <sheet name="数据初始化脚本" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'页面-接口'!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -138,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="436">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,10 +1409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_quote_detail_list_4_vendor_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商报价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1434,14 +1433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_plan_goods_class_list_with_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanGoodsClassListWithVendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待复审明细列表（商品名称、数量、单位）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1525,10 +1516,6 @@
   </si>
   <si>
     <t>略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_po_goods_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1571,13 +1558,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>view_biz_type
+view_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GetBizTypes()
 GetGoods()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_biz_type
-view_goods</t>
+    <t>api/stocks?DepartmentID=1&amp;StartTime=2018-11-01 00:00:00&amp;EndTime=2018-11-20 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/biztypes
+api/goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/StockIn4Dept?bizTypeId=1&amp;startTime=2018-01-01 00:00:00&amp;endTime=2018-11-21 00:00:00&amp;listIntGoodsIds=1,2,3&amp;deparmentId=1&amp;PageIndex=0&amp;PageSize=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4All()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/QuoteDetailList4Vendor2Quote?bizTypeID=1&amp;startTime&amp;endTime=2018-12-01&amp;vendorID=1&amp;PageIndex=0&amp;PageSize=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderDetailList4Vendor?purchasingOrderID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_order_detail_list_4_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanDetail?purchasingPlanId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsClassQuoteCount?bizTypeId=1&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorPriceRange?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=1&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=2&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=3&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（当前部门、待收货状态）分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderLists4Dept?departmentID=3&amp;PageIndex=1&amp;PageSize=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList4Dept(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderDetailList4Dept?orderID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderList?PageIndex=1&amp;PageSize=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderDetailList?purchasingOrderID=1&amp;PageIndex=1&amp;PageSize=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Audit?PageIndex=1&amp;PageSize=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Audit?PageIndex=1&amp;PageSize=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_goods_class_list_with_vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanGoodsClassListWithVendor?PurchasingPalnID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_po_goods_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1586,60 +1722,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/stocks?DepartmentID=1&amp;StartTime=2018-11-01 00:00:00&amp;EndTime=2018-11-20 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/biztypes
-api/goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/StockIn4Dept?bizTypeId=1&amp;startTime=2018-01-01 00:00:00&amp;endTime=2018-11-21 00:00:00&amp;listIntGoodsIds=1,2,3&amp;deparmentId=1&amp;PageIndex=0&amp;PageSize=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanCount4All()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/QuoteDetailList4Vendor2Quote?bizTypeID=1&amp;startTime&amp;endTime=2018-12-01&amp;vendorID=1&amp;PageIndex=0&amp;PageSize=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderDetailList4Vendor?purchasingOrderID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanCount4All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_order_detail_list_4_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanCount4Audit?PageIndex=1&amp;PageSize=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanDetail?purchasingPlanId=1</t>
+    <t>同一颜色的接口和逻辑是一样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_po_dept_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Dept(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_dept_goods_subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderTotal?departmentID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_vendor_goods_subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderVendorSubtotal(int vendorID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsSubtotal(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderTotal(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderVendorSubtotal?vendorID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentExport(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/DepartmentExport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_detail_list_4_vendor_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassListWithVendor()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1647,79 +1794,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8&amp;1=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GoodsClassQuoteCount?bizTypeId=1&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorPriceRange(int bizTypeId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GoodsQuoteDetailVendorPriceRange?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=1&amp;PageIndex=1&amp;PageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=2&amp;PageIndex=1&amp;PageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=3&amp;PageIndex=1&amp;PageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanCount4Dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（当前部门、待收货状态）分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderLists4Dept?departmentID=3&amp;PageIndex=1&amp;PageSize=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderList4Dept(int departmentID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> GetPurchasingOrderDetailList4Dept(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderDetailList4Dept?orderID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderList()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderList?PageIndex=1&amp;PageSize=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderDetailList?purchasingOrderID=1&amp;PageIndex=1&amp;PageSize=5</t>
+    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1874,7 +1949,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1890,6 +1965,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1971,15 +2064,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1987,12 +2077,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2008,51 +2096,156 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3070,10 +3263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K59"/>
+  <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3083,35 +3276,40 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="77" customWidth="1"/>
-    <col min="7" max="7" width="37.875" customWidth="1"/>
-    <col min="8" max="8" width="91.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" style="20" customWidth="1"/>
+    <col min="7" max="7" width="79.25" style="26" customWidth="1"/>
+    <col min="8" max="8" width="91.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:9">
+      <c r="G1" s="55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="28" customFormat="1">
+      <c r="B2" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="29" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3119,189 +3317,189 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>337</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="28.5">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="F4" s="13"/>
+      <c r="G4" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="28.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" ht="28.5">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="56" t="s">
         <v>315</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>341</v>
+      <c r="G6" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56" t="s">
         <v>329</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="2:9" ht="28.5">
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>343</v>
+      <c r="G9" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>390</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3309,23 +3507,23 @@
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56" t="s">
         <v>309</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="G12" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" s="34" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3333,21 +3531,21 @@
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="I13" s="26" t="s">
+      <c r="G13" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" s="45" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3355,149 +3553,149 @@
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="17" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:9" s="2" customFormat="1">
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="17" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="I16" s="29" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="I16" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="11" customFormat="1">
+    <row r="17" spans="2:9" s="8" customFormat="1">
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="36" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="37" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="11" customFormat="1">
+    <row r="18" spans="2:9" s="8" customFormat="1" ht="28.5">
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="6" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="I18" s="30" t="s">
+      <c r="G18" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="11" customFormat="1">
+    <row r="19" spans="2:9" s="8" customFormat="1">
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="6" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="G19" s="23"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="33"/>
+    </row>
+    <row r="20" spans="2:9" ht="28.5">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3505,83 +3703,87 @@
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56" t="s">
         <v>310</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I22" s="29" t="s">
+      <c r="F22" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="I22" s="36" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="4">
+    <row r="23" spans="2:9" s="68" customFormat="1">
+      <c r="B23" s="65">
         <v>21</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>348</v>
+      <c r="G23" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="I24" s="31" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" s="46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="28.5">
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I25" s="30" t="s">
+      <c r="F25" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3589,203 +3791,225 @@
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I26" s="8"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="2:9" s="2" customFormat="1">
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="5" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="13"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" spans="2:9" s="2" customFormat="1">
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="17" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="2:9" s="2" customFormat="1">
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56" t="s">
         <v>301</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>356</v>
+      <c r="G30" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>358</v>
+      <c r="F31" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="11" t="s">
         <v>302</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="I32" s="18" t="s">
+      <c r="G32" s="49"/>
+      <c r="H32" s="48" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="I32" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="28.5">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="56" t="s">
         <v>303</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="G35" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="56" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -3794,36 +4018,36 @@
       <c r="E37" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>362</v>
+      <c r="F37" s="13"/>
+      <c r="G37" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="3" customFormat="1">
       <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="37" t="s">
+      <c r="C38" s="56"/>
+      <c r="D38" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I38" s="29" t="s">
+      <c r="G38" s="51"/>
+      <c r="H38" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I38" s="50" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3831,97 +4055,97 @@
       <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="4" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I39" s="29" t="s">
+      <c r="G39" s="49"/>
+      <c r="H39" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="I39" s="50" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" ht="28.5">
       <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="5" t="s">
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="G40" s="23"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="2:9" ht="28.5">
       <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="5" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="5" t="s">
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="5" t="s">
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="38" t="s">
+      <c r="C44" s="56"/>
+      <c r="D44" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="I44" s="22" t="s">
+      <c r="G44" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="I44" s="34" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3929,63 +4153,63 @@
       <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="5" t="s">
+      <c r="C45" s="56"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="5" t="s">
+      <c r="C46" s="56"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="5" t="s">
+      <c r="C47" s="56"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="34"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="19" t="s">
+      <c r="C48" s="56"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="I48" s="22" t="s">
+      <c r="G48" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="I48" s="34" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3993,21 +4217,21 @@
       <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="39"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="I49" s="29" t="s">
+      <c r="G49" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="I49" s="36" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4015,61 +4239,61 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="39"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>175</v>
+        <v>366</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="40"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="7"/>
+        <v>367</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="39"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34" t="s">
+      <c r="C52" s="56"/>
+      <c r="D52" s="56" t="s">
         <v>137</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="I52" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="I52" s="29" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4077,21 +4301,21 @@
       <c r="B53" s="4">
         <v>51</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35" t="s">
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="I53" s="8" t="s">
+      <c r="G53" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="I53" s="29" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4099,116 +4323,137 @@
       <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="5" t="s">
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="5" t="s">
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="2:11" ht="28.5">
       <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34" t="s">
+      <c r="C56" s="56"/>
+      <c r="D56" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="2:11">
+      <c r="G56" s="53"/>
+      <c r="H56" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="2:11" ht="28.5">
       <c r="B57" s="4">
         <v>55</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="8"/>
+      <c r="G57" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>415</v>
+      </c>
       <c r="K57" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" ht="28.5">
       <c r="B58" s="4">
         <v>56</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34" t="s">
+      <c r="C58" s="56"/>
+      <c r="D58" s="56" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="2:11">
+      <c r="G58" s="53"/>
+      <c r="H58" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="28.5">
       <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="19" t="s">
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="G59" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="I59" s="30"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I2"/>
   <mergeCells count="23">
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E38:E43"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D44:D51"/>
     <mergeCell ref="C37:C59"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D30:D31"/>
@@ -4216,15 +4461,9 @@
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D52:D55"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E38:E43"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="D38:D43"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E25:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4353,566 +4592,566 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="14"/>
+    <col min="1" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
-        <v>360</v>
+      <c r="A26" s="10" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
-        <v>361</v>
+      <c r="A27" s="10" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="10" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="10" t="s">
         <v>249</v>
       </c>
     </row>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -3265,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="437">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,10 +1233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按筛选条件及商品id，获取对应商品的供应商报价列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1434,10 +1430,6 @@
   </si>
   <si>
     <t>待复审明细列表（商品名称、数量、单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1637,10 +1629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=1&amp;PageIndex=1&amp;PageSize=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1794,7 +1782,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeceondAuditComfirm(int purchasingPlanId)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2211,30 +2215,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2246,6 +2226,30 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3265,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3284,12 +3288,12 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="G1" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="2:9" s="28" customFormat="1">
       <c r="B2" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>159</v>
@@ -3304,7 +3308,7 @@
         <v>162</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>270</v>
@@ -3317,21 +3321,21 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="62" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I3" s="30"/>
     </row>
@@ -3339,81 +3343,81 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="49" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="28.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="28.5">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>315</v>
+      <c r="D6" s="62" t="s">
+        <v>314</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>328</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
@@ -3423,15 +3427,15 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>331</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
@@ -3441,49 +3445,49 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>388</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="62" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3494,10 +3498,10 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>292</v>
@@ -3507,9 +3511,9 @@
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56" t="s">
-        <v>309</v>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62" t="s">
+        <v>308</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>133</v>
@@ -3518,10 +3522,10 @@
         <v>132</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>170</v>
@@ -3531,8 +3535,8 @@
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="17" t="s">
         <v>131</v>
       </c>
@@ -3540,10 +3544,10 @@
         <v>169</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I13" s="45" t="s">
         <v>175</v>
@@ -3553,8 +3557,8 @@
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="12" t="s">
         <v>179</v>
       </c>
@@ -3569,8 +3573,8 @@
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="12" t="s">
         <v>178</v>
       </c>
@@ -3585,19 +3589,19 @@
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="48" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>144</v>
@@ -3607,16 +3611,16 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="62" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="66" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>296</v>
@@ -3629,17 +3633,17 @@
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I18" s="37" t="s">
         <v>294</v>
@@ -3649,11 +3653,11 @@
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="25"/>
@@ -3663,19 +3667,19 @@
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>297</v>
+        <v>433</v>
       </c>
       <c r="I20" s="30"/>
     </row>
@@ -3683,83 +3687,83 @@
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56" t="s">
-        <v>310</v>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62" t="s">
+        <v>309</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="68" customFormat="1">
-      <c r="B23" s="65">
+    <row r="23" spans="2:9" s="60" customFormat="1">
+      <c r="B23" s="57">
         <v>21</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="58" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="67" t="s">
-        <v>412</v>
+      <c r="G23" s="59" t="s">
+        <v>409</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="58"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="I24" s="46" t="s">
         <v>175</v>
@@ -3769,19 +3773,19 @@
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="58" t="s">
-        <v>318</v>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="61" t="s">
+        <v>317</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I25" s="37" t="s">
         <v>173</v>
@@ -3791,15 +3795,15 @@
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="58"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I26" s="29"/>
     </row>
@@ -3807,10 +3811,10 @@
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="64" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="56" t="s">
         <v>174</v>
       </c>
       <c r="G27" s="23"/>
@@ -3821,29 +3825,31 @@
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>176</v>
       </c>
       <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>436</v>
+      </c>
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="2:9" s="2" customFormat="1">
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -3853,163 +3859,163 @@
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56" t="s">
-        <v>301</v>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62" t="s">
+        <v>300</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F31" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>356</v>
-      </c>
       <c r="I31" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G32" s="49"/>
       <c r="H32" s="48" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I32" s="49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.5">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="15"/>
       <c r="E33" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="42" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I33" s="42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56" t="s">
-        <v>303</v>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62" t="s">
+        <v>302</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>322</v>
-      </c>
       <c r="G34" s="21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G35" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="H35" s="21" t="s">
-        <v>426</v>
-      </c>
       <c r="I35" s="30" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="62" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -4020,32 +4026,32 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="3" customFormat="1">
       <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57" t="s">
+      <c r="C38" s="62"/>
+      <c r="D38" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="62" t="s">
-        <v>364</v>
+      <c r="E38" s="66" t="s">
+        <v>362</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>106</v>
       </c>
       <c r="G38" s="51"/>
       <c r="H38" s="52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I38" s="50" t="s">
         <v>271</v>
@@ -4055,15 +4061,15 @@
       <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="13" t="s">
         <v>146</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I39" s="50" t="s">
         <v>147</v>
@@ -4073,9 +4079,9 @@
       <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="66"/>
       <c r="F40" s="18" t="s">
         <v>148</v>
       </c>
@@ -4087,9 +4093,9 @@
       <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="18" t="s">
         <v>150</v>
       </c>
@@ -4101,9 +4107,9 @@
       <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="66"/>
       <c r="F42" s="18" t="s">
         <v>149</v>
       </c>
@@ -4115,9 +4121,9 @@
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="18" t="s">
         <v>151</v>
       </c>
@@ -4129,21 +4135,21 @@
       <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="59" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="61" t="s">
         <v>116</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>153</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>272</v>
@@ -4153,9 +4159,9 @@
       <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="58"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="18" t="s">
         <v>156</v>
       </c>
@@ -4167,9 +4173,9 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="58"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="18" t="s">
         <v>155</v>
       </c>
@@ -4181,9 +4187,9 @@
       <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="58"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="18" t="s">
         <v>154</v>
       </c>
@@ -4195,8 +4201,8 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="60"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="14" t="s">
         <v>117</v>
       </c>
@@ -4204,10 +4210,10 @@
         <v>157</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>152</v>
@@ -4217,8 +4223,8 @@
       <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="60"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="4" t="s">
         <v>130</v>
       </c>
@@ -4226,10 +4232,10 @@
         <v>158</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I49" s="36" t="s">
         <v>290</v>
@@ -4239,35 +4245,35 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="60"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I50" s="46" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="61"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="21"/>
@@ -4277,21 +4283,21 @@
       <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="62" t="s">
         <v>137</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="H52" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>404</v>
       </c>
       <c r="I52" s="29" t="s">
         <v>291</v>
@@ -4301,19 +4307,19 @@
       <c r="B53" s="4">
         <v>51</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="58" t="s">
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="61" t="s">
         <v>138</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>139</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>166</v>
@@ -4323,9 +4329,9 @@
       <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="58"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="61"/>
       <c r="F54" s="18" t="s">
         <v>140</v>
       </c>
@@ -4337,9 +4343,9 @@
       <c r="B55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="58"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="18" t="s">
         <v>165</v>
       </c>
@@ -4351,8 +4357,8 @@
       <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56" t="s">
+      <c r="C56" s="62"/>
+      <c r="D56" s="62" t="s">
         <v>104</v>
       </c>
       <c r="E56" s="12" t="s">
@@ -4363,10 +4369,10 @@
       </c>
       <c r="G56" s="53"/>
       <c r="H56" s="52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I56" s="54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -4375,8 +4381,8 @@
       <c r="B57" s="4">
         <v>55</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="4" t="s">
         <v>104</v>
       </c>
@@ -4384,13 +4390,13 @@
         <v>105</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H57" s="42" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s">
         <v>167</v>
@@ -4400,8 +4406,8 @@
       <c r="B58" s="4">
         <v>56</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56" t="s">
+      <c r="C58" s="62"/>
+      <c r="D58" s="62" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4412,48 +4418,35 @@
       </c>
       <c r="G58" s="53"/>
       <c r="H58" s="52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I58" s="54" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="28.5">
       <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="14" t="s">
         <v>101</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I59" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2"/>
   <mergeCells count="23">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="C37:C59"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D30:D31"/>
@@ -4464,6 +4457,19 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="D38:D43"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E38:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4707,12 +4713,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:1">

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="438">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_purchasing_plan_list_4_dept_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未确认的采购单列表，单号、采购项数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1480,10 +1476,6 @@
   </si>
   <si>
     <t>GetPurchasingPlanLists4Dept(int departmentID, int state)  state = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1585,10 +1577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetPurchasingPlanCount4All()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1614,10 +1602,6 @@
   </si>
   <si>
     <t>api/GoodsClassQuoteCount?bizTypeId=1&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1718,87 +1702,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GetPurchasingOrderDetailList4Dept(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_dept_goods_subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderTotal?departmentID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_vendor_goods_subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderVendorSubtotal(int vendorID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsSubtotal(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderTotal(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderVendorSubtotal?vendorID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/DepartmentExport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_detail_list_4_vendor_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassListWithVendor()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM(int purchasingPlanID, int goodsClassID, List&lt;int&gt; listGoodsID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeceondAuditComfirm(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>view_statics_po_dept_total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingOrderDetailList4Dept(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_dept_goods_subtotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderTotal?departmentID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_vendor_goods_subtotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderVendorSubtotal(int vendorID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsSubtotal(int departmentID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderTotal(int departmentID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderVendorSubtotal?vendorID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepartmentExport(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/DepartmentExport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_quote_detail_list_4_vendor_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanGoodsClassListWithVendor()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM(int purchasingPlanID, int goodsClassID, List&lt;int&gt; listGoodsID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeceondAuditComfirm(int purchasingPlanId)</t>
+    <t>view_purchasing_plan_list_4_dept_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_po_goods_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1953,7 +1957,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1986,6 +1990,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,7 +2078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2078,9 +2088,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2140,9 +2147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2227,10 +2231,13 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2247,8 +2254,40 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3269,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3280,40 +3319,40 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="77" style="20" customWidth="1"/>
-    <col min="7" max="7" width="79.25" style="26" customWidth="1"/>
-    <col min="8" max="8" width="91.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" style="19" customWidth="1"/>
+    <col min="7" max="7" width="79.25" style="25" customWidth="1"/>
+    <col min="8" max="8" width="91.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="G1" s="55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" s="28" customFormat="1">
+      <c r="G1" s="53" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="27" customFormat="1">
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3321,289 +3360,289 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>336</v>
+      <c r="D3" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" s="30"/>
+      <c r="F3" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="2:9" ht="28.5">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="H4" s="48" t="s">
+      <c r="E4" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>369</v>
+      <c r="H4" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="28.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="I5" s="77" t="s">
         <v>333</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="28.5">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>314</v>
+      <c r="D6" s="59" t="s">
+        <v>313</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>429</v>
+        <v>339</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:9" ht="28.5">
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>341</v>
+      <c r="H9" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="4">
+      <c r="H10" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="76" customFormat="1">
+      <c r="B11" s="72">
         <v>9</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="E11" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>292</v>
+      <c r="H11" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="71" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62" t="s">
-        <v>308</v>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59" t="s">
+        <v>307</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>170</v>
+      <c r="G12" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>175</v>
+      <c r="F13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="2" customFormat="1">
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="35"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="2:9" s="2" customFormat="1">
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="35"/>
+      <c r="F15" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="I16" s="50" t="s">
+      <c r="F16" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3611,467 +3650,467 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="66" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="I17" s="37" t="s">
+      <c r="F17" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>295</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="8" customFormat="1" ht="28.5">
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>294</v>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="8" customFormat="1">
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="33"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" ht="28.5">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="I20" s="30"/>
+      <c r="F20" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="I21" s="36" t="s">
+      <c r="F21" s="12" t="s">
         <v>298</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62" t="s">
-        <v>309</v>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59" t="s">
+        <v>308</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="60" customFormat="1">
-      <c r="B23" s="57">
+      <c r="F22" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="I22" s="78" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="58" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="55">
         <v>21</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>409</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>408</v>
+        <v>179</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="61"/>
-      <c r="F24" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>175</v>
+      <c r="F24" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="28.5">
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>173</v>
+        <v>316</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="61"/>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="2:9" s="2" customFormat="1">
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="61"/>
-      <c r="F27" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="38"/>
+      <c r="F27" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="2:9" s="2" customFormat="1">
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="I28" s="35"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="2:9" s="2" customFormat="1">
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="35"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62" t="s">
-        <v>300</v>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59" t="s">
+        <v>299</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>351</v>
+        <v>311</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="H30" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="I30" s="79" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F31" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="I31" s="29" t="s">
         <v>352</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="11" t="s">
-        <v>301</v>
+      <c r="C32" s="59"/>
+      <c r="D32" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>370</v>
+        <v>365</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.5">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>412</v>
+        <v>366</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62" t="s">
-        <v>302</v>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59" t="s">
+        <v>301</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="H34" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>416</v>
+      <c r="I34" s="79" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="I35" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H35" s="70" t="s">
         <v>418</v>
+      </c>
+      <c r="I35" s="79" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>421</v>
+        <v>310</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="I36" s="79" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="59" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="I37" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="H37" s="68" t="s">
         <v>357</v>
+      </c>
+      <c r="I37" s="78" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="3" customFormat="1">
       <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="68" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="F38" s="19" t="s">
+      <c r="E38" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="I38" s="50" t="s">
-        <v>271</v>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="13" t="s">
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="I39" s="50" t="s">
+      <c r="G39" s="47"/>
+      <c r="H39" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="I39" s="48" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4079,300 +4118,300 @@
       <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="18" t="s">
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="30"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="2:9" ht="28.5">
       <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="18" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="30"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="29"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="18" t="s">
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="30"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="29"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="18" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="30"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="29"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="62" t="s">
         <v>99</v>
       </c>
       <c r="E44" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="I44" s="34" t="s">
-        <v>272</v>
+      <c r="F44" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="H44" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="I44" s="71" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="64"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="61"/>
-      <c r="F45" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="34"/>
+      <c r="F45" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="32"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="64"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="61"/>
-      <c r="F46" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="34"/>
+      <c r="F46" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="32"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="64"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="61"/>
-      <c r="F47" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="34"/>
+      <c r="F47" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="14" t="s">
+      <c r="C48" s="59"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>152</v>
+      <c r="F48" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="H48" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="I48" s="71" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="64"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="I49" s="36" t="s">
-        <v>290</v>
+      <c r="F49" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H49" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="I49" s="78" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="I50" s="46" t="s">
-        <v>415</v>
+        <v>362</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="65"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="39"/>
+        <v>363</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="37"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62" t="s">
+      <c r="C52" s="59"/>
+      <c r="D52" s="59" t="s">
         <v>137</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>291</v>
+        <v>394</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="H52" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="I52" s="71" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="4">
         <v>51</v>
       </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>166</v>
+      <c r="G53" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="61"/>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="30"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="61"/>
-      <c r="F55" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="30"/>
+      <c r="F55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="22"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="2:11" ht="28.5">
       <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62" t="s">
+      <c r="C56" s="59"/>
+      <c r="D56" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="I56" s="54" t="s">
-        <v>375</v>
+      <c r="G56" s="51"/>
+      <c r="H56" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>373</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -4381,72 +4420,87 @@
       <c r="B57" s="4">
         <v>55</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G57" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>412</v>
+      <c r="G57" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="H57" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="I57" s="70" t="s">
+        <v>408</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="28.5">
       <c r="B58" s="4">
         <v>56</v>
       </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62" t="s">
+      <c r="C58" s="59"/>
+      <c r="D58" s="59" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="I58" s="54" t="s">
-        <v>369</v>
+      <c r="G58" s="51"/>
+      <c r="H58" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="I58" s="52" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="28.5">
       <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="14" t="s">
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="I59" s="30"/>
+      <c r="F59" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H59" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="I59" s="79" t="s">
+        <v>437</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2"/>
   <mergeCells count="23">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="C37:C59"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D30:D31"/>
@@ -4457,19 +4511,6 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="D38:D43"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E38:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4499,7 +4540,7 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4515,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4523,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4531,7 +4572,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4539,7 +4580,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4555,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4563,7 +4604,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4571,7 +4612,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4579,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4598,567 +4639,567 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="10"/>
+    <col min="1" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="10" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="10" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="10" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="10" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="10" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="10" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="10" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="10" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="10" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="10" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="10" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="10" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="10" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="10" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="10" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="10" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="10" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="10" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="10" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="10" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="10" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="10" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="10" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="10" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="10" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="10" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="10" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="10" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="10" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="10" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="10" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="10" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="10" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="10" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="10" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="10" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="10" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="10" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="10" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="10" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="10" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="10" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="10" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="10" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="10" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="10" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="10" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="10" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="10" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="10" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="10" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="10" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="10" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="10" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="10" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="10" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="10" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="10" t="s">
-        <v>249</v>
+      <c r="A134" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -40,6 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -49,6 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,6 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -75,6 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -141,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="440">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,10 +1410,6 @@
   </si>
   <si>
     <t>view_purchasing_order_list_4_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1677,14 +1677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_statics_po_goods_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1710,99 +1702,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_vendor_goods_subtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_quote_detail_list_4_vendor_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassListWithVendor()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM(int purchasingPlanID, int goodsClassID, List&lt;int&gt; listGoodsID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeceondAuditComfirm(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_po_dept_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_po_goods_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/DepartmentExport?&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/QuoteListAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>api/PurchasingOrderTotal?departmentID=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_vendor_goods_subtotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderVendorSubtotal(int vendorID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsSubtotal(int departmentID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderTotal(int departmentID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderVendorSubtotal?vendorID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/DepartmentExport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_quote_detail_list_4_vendor_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanGoodsClassListWithVendor()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM(int purchasingPlanID, int goodsClassID, List&lt;int&gt; listGoodsID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeceondAuditComfirm(int purchasingPlanId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetQuoteDetailList4Vendor2Quote(int vendorID, List&lt;int&gt; listBizTypeID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_po_dept_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_dept_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_po_goods_count</t>
+    <t>api/PurchasingOrderVendorSubtotal?vendorID=1&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderTotal(int departmentID, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsSubtotal(int departmentID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderVendorSubtotal(int vendorID, DateTime? startTime, DateTime? endTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1810,7 +1835,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1894,19 +1919,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2073,12 +2085,12 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2147,22 +2159,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2180,16 +2192,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,7 +2213,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2213,60 +2225,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2283,11 +2268,51 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3308,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3327,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="G1" s="53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="2:9" s="27" customFormat="1">
@@ -3360,7 +3385,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="72" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -3371,9 +3396,9 @@
         <v>331</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="H3" s="59" t="s">
         <v>337</v>
       </c>
       <c r="I3" s="29"/>
@@ -3382,8 +3407,8 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3391,32 +3416,32 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="28.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="H5" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="H5" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="68" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3424,10 +3449,10 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="72" t="s">
         <v>313</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3437,21 +3462,21 @@
         <v>323</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="4" t="s">
         <v>325</v>
       </c>
@@ -3466,8 +3491,8 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72" t="s">
         <v>327</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -3484,8 +3509,8 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="4" t="s">
         <v>142</v>
       </c>
@@ -3493,10 +3518,10 @@
         <v>330</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>379</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>340</v>
@@ -3506,43 +3531,43 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="67" customFormat="1">
+      <c r="B11" s="63">
+        <v>9</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="H10" s="69" t="s">
-        <v>432</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="76" customFormat="1">
-      <c r="B11" s="72">
-        <v>9</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75" t="s">
-        <v>384</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3550,8 +3575,8 @@
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72" t="s">
         <v>307</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3561,12 +3586,12 @@
         <v>132</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="I12" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="I12" s="62" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3574,8 +3599,8 @@
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="16" t="s">
         <v>131</v>
       </c>
@@ -3583,10 +3608,10 @@
         <v>168</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>174</v>
@@ -3596,8 +3621,8 @@
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="11" t="s">
         <v>178</v>
       </c>
@@ -3612,8 +3637,8 @@
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="11" t="s">
         <v>177</v>
       </c>
@@ -3628,8 +3653,8 @@
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3640,7 +3665,7 @@
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>144</v>
@@ -3650,16 +3675,16 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="65" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="76" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>304</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>295</v>
@@ -3672,17 +3697,17 @@
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="66"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="18" t="s">
         <v>306</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>293</v>
@@ -3692,9 +3717,9 @@
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="66"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="18" t="s">
         <v>305</v>
       </c>
@@ -3706,8 +3731,8 @@
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
@@ -3715,10 +3740,10 @@
         <v>296</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I20" s="29"/>
     </row>
@@ -3726,17 +3751,19 @@
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="80" t="s">
+        <v>431</v>
+      </c>
       <c r="H21" s="21" t="s">
-        <v>341</v>
+        <v>429</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>297</v>
@@ -3746,23 +3773,23 @@
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="72"/>
+      <c r="D22" s="72" t="s">
         <v>308</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="I22" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="I22" s="69" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3770,39 +3797,39 @@
       <c r="B23" s="55">
         <v>21</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61" t="s">
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="71" t="s">
         <v>179</v>
       </c>
       <c r="F23" s="56" t="s">
         <v>170</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="61"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I24" s="44" t="s">
         <v>174</v>
@@ -3812,19 +3839,19 @@
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="61" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="71" t="s">
         <v>316</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>172</v>
@@ -3834,15 +3861,15 @@
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="61"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I26" s="28"/>
     </row>
@@ -3850,9 +3877,9 @@
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="61"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="54" t="s">
         <v>173</v>
       </c>
@@ -3864,8 +3891,8 @@
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="11" t="s">
         <v>314</v>
       </c>
@@ -3874,7 +3901,7 @@
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="I28" s="33"/>
     </row>
@@ -3882,8 +3909,8 @@
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="11" t="s">
         <v>315</v>
       </c>
@@ -3898,8 +3925,8 @@
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="72" t="s">
         <v>299</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3909,85 +3936,85 @@
         <v>309</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="H30" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="I30" s="79" t="s">
-        <v>350</v>
+      <c r="H30" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="4" t="s">
         <v>312</v>
       </c>
       <c r="F31" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="I31" s="29" t="s">
         <v>351</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="10" t="s">
         <v>300</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>318</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I32" s="47" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="28.5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="28.5">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="14"/>
       <c r="E33" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>433</v>
-      </c>
-      <c r="I33" s="70" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="G33" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59" t="s">
+      <c r="C34" s="72"/>
+      <c r="D34" s="72" t="s">
         <v>301</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3996,65 +4023,68 @@
       <c r="F34" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="H34" s="70" t="s">
-        <v>419</v>
-      </c>
-      <c r="I34" s="79" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="G34" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="H34" s="80" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="J34" s="83"/>
+    </row>
+    <row r="35" spans="2:10" ht="28.5">
       <c r="B35" s="4">
         <v>33</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="4" t="s">
         <v>321</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>418</v>
-      </c>
-      <c r="I35" s="79" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+      <c r="G35" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="H35" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="I35" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="J35" s="83"/>
+    </row>
+    <row r="36" spans="2:10" ht="28.5">
       <c r="B36" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="4" t="s">
         <v>310</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>417</v>
-      </c>
-      <c r="I36" s="79" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="G36" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="H36" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="J36" s="83"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="72" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -4065,62 +4095,62 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>357</v>
-      </c>
-      <c r="I37" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="H37" s="60" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" s="3" customFormat="1">
+      <c r="I37" s="69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="3" customFormat="1">
       <c r="B38" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60" t="s">
+      <c r="C38" s="72"/>
+      <c r="D38" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="65" t="s">
-        <v>360</v>
+      <c r="E38" s="76" t="s">
+        <v>359</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>106</v>
       </c>
       <c r="G38" s="49"/>
       <c r="H38" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I38" s="48" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:10">
       <c r="B39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="65"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="76"/>
       <c r="F39" s="12" t="s">
         <v>146</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I39" s="48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="28.5">
+    <row r="40" spans="2:10" ht="28.5">
       <c r="B40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="65"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="17" t="s">
         <v>148</v>
       </c>
@@ -4128,13 +4158,13 @@
       <c r="H40" s="20"/>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="2:9" ht="28.5">
+    <row r="41" spans="2:10" ht="28.5">
       <c r="B41" s="4">
         <v>39</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="65"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="76"/>
       <c r="F41" s="17" t="s">
         <v>150</v>
       </c>
@@ -4142,13 +4172,13 @@
       <c r="H41" s="20"/>
       <c r="I41" s="29"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:10">
       <c r="B42" s="4">
         <v>40</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="65"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="76"/>
       <c r="F42" s="17" t="s">
         <v>149</v>
       </c>
@@ -4156,13 +4186,13 @@
       <c r="H42" s="20"/>
       <c r="I42" s="29"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:10">
       <c r="B43" s="4">
         <v>41</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="65"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="17" t="s">
         <v>151</v>
       </c>
@@ -4170,78 +4200,78 @@
       <c r="H43" s="20"/>
       <c r="I43" s="29"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:10">
       <c r="B44" s="4">
         <v>42</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="72"/>
+      <c r="D44" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="71" t="s">
         <v>116</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>152</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="H44" s="68" t="s">
-        <v>358</v>
-      </c>
-      <c r="I44" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="I44" s="62" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:10">
       <c r="B45" s="4">
         <v>43</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="61"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="17" t="s">
         <v>155</v>
       </c>
       <c r="G45" s="22"/>
-      <c r="H45" s="67"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:10">
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="61"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="71"/>
       <c r="F46" s="17" t="s">
         <v>154</v>
       </c>
       <c r="G46" s="22"/>
-      <c r="H46" s="67"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:10">
       <c r="B47" s="4">
         <v>45</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="61"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="17" t="s">
         <v>153</v>
       </c>
       <c r="G47" s="22"/>
-      <c r="H47" s="67"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:10">
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="63"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="13" t="s">
         <v>117</v>
       </c>
@@ -4249,21 +4279,21 @@
         <v>156</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="H48" s="68" t="s">
-        <v>436</v>
-      </c>
-      <c r="I48" s="71" t="s">
-        <v>435</v>
+        <v>390</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="63"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="4" t="s">
         <v>130</v>
       </c>
@@ -4271,12 +4301,12 @@
         <v>157</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="H49" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="I49" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="I49" s="69" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4284,35 +4314,35 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="63"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4">
         <v>49</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="64"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="75"/>
       <c r="E51" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>364</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="20"/>
@@ -4322,23 +4352,23 @@
       <c r="B52" s="4">
         <v>50</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59" t="s">
+      <c r="C52" s="72"/>
+      <c r="D52" s="72" t="s">
         <v>137</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="G52" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="H52" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="H52" s="68" t="s">
-        <v>397</v>
-      </c>
-      <c r="I52" s="71" t="s">
+      <c r="I52" s="62" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4346,19 +4376,19 @@
       <c r="B53" s="4">
         <v>51</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="61" t="s">
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="71" t="s">
         <v>138</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>139</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>165</v>
@@ -4368,9 +4398,9 @@
       <c r="B54" s="4">
         <v>52</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="71"/>
       <c r="F54" s="17" t="s">
         <v>140</v>
       </c>
@@ -4382,9 +4412,9 @@
       <c r="B55" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="61"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="17" t="s">
         <v>164</v>
       </c>
@@ -4396,8 +4426,8 @@
       <c r="B56" s="4">
         <v>54</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59" t="s">
+      <c r="C56" s="72"/>
+      <c r="D56" s="72" t="s">
         <v>104</v>
       </c>
       <c r="E56" s="11" t="s">
@@ -4408,10 +4438,10 @@
       </c>
       <c r="G56" s="51"/>
       <c r="H56" s="50" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I56" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7"/>
@@ -4420,8 +4450,8 @@
       <c r="B57" s="4">
         <v>55</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="4" t="s">
         <v>104</v>
       </c>
@@ -4429,13 +4459,13 @@
         <v>105</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="H57" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="I57" s="70" t="s">
-        <v>408</v>
+        <v>430</v>
+      </c>
+      <c r="H57" s="80" t="s">
+        <v>433</v>
+      </c>
+      <c r="I57" s="82" t="s">
+        <v>405</v>
       </c>
       <c r="K57" t="s">
         <v>166</v>
@@ -4445,8 +4475,8 @@
       <c r="B58" s="4">
         <v>56</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59" t="s">
+      <c r="C58" s="72"/>
+      <c r="D58" s="72" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -4457,50 +4487,37 @@
       </c>
       <c r="G58" s="51"/>
       <c r="H58" s="50" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I58" s="52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="28.5">
       <c r="B59" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
       <c r="E59" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="H59" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="I59" s="79" t="s">
-        <v>437</v>
+      <c r="G59" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="H59" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="I59" s="81" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2"/>
   <mergeCells count="23">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="C37:C59"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D30:D31"/>
@@ -4511,6 +4528,19 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="D38:D43"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E38:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4754,12 +4784,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:1">

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" shapeId="0">
+    <comment ref="I40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0" shapeId="0">
+    <comment ref="E52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="446">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1338,10 +1338,6 @@
   </si>
   <si>
     <t>按供应商 采购类型 采购项目 单价 数量 小计金额 采购时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1569,10 +1565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,10 +1691,6 @@
   </si>
   <si>
     <t>view_statics_dept_goods_subtotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1811,11 +1799,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/PurchasingOrderTotal?departmentID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderVendorSubtotal?vendorID=1&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <t>excel导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsSubtotal(int departmentID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1823,11 +1819,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingOrderGoodsSubtotal(int departmentID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderVendorSubtotal(int vendorID, DateTime? startTime, DateTime? endTime)</t>
+    <t>GetPurchasingOrderVendorSubtotal(int vendorID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderTotal?departmentID=3&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export/PurchasingOrderTotal?departmentID=3&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=3&amp;listBizTypeIDs=1,2&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export/PurchasingOrderGoodsSubtotal?departmentID=3&amp;listBizTypeIDs=1,2&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export/PurchasingOrderVendorSubtotal?vendorID=1&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderVendorSubtotal?vendorID=1&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2090,7 +2114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2113,9 +2137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2274,30 +2295,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2313,6 +2310,36 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3331,10 +3358,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K59"/>
+  <dimension ref="B1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3344,20 +3371,20 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="77" style="19" customWidth="1"/>
-    <col min="7" max="7" width="79.25" style="25" customWidth="1"/>
-    <col min="8" max="8" width="91.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" style="18" customWidth="1"/>
+    <col min="7" max="7" width="79.25" style="24" customWidth="1"/>
+    <col min="8" max="8" width="91.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="G1" s="53" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" s="27" customFormat="1">
+      <c r="G1" s="52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="26" customFormat="1">
       <c r="B2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>158</v>
@@ -3368,16 +3395,16 @@
       <c r="E2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3385,189 +3412,189 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="77" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>337</v>
-      </c>
-      <c r="I3" s="29"/>
+        <v>330</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" ht="28.5">
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>366</v>
+      <c r="G4" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="28.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="67" t="s">
         <v>332</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="28.5">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="77" t="s">
         <v>313</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>413</v>
+        <v>439</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="29"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="29"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="2:9" ht="28.5">
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="4" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="H9" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>340</v>
+      <c r="H9" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="67" customFormat="1">
-      <c r="B11" s="63">
+    </row>
+    <row r="11" spans="2:9" s="66" customFormat="1">
+      <c r="B11" s="62">
         <v>9</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="I11" s="62" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="I11" s="61" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3575,8 +3602,8 @@
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="77" t="s">
         <v>307</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3585,13 +3612,13 @@
       <c r="F12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="I12" s="62" t="s">
+      <c r="G12" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="I12" s="61" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3599,21 +3626,21 @@
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="15" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="I13" s="43" t="s">
+      <c r="G13" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3621,40 +3648,40 @@
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="2:9" s="2" customFormat="1">
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="33"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="77" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3663,11 +3690,11 @@
       <c r="F16" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="I16" s="48" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="I16" s="47" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3675,21 +3702,21 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="76" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H17" s="23" t="s">
+      <c r="G17" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="34" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3697,19 +3724,19 @@
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="18" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="I18" s="35" t="s">
+      <c r="G18" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3717,55 +3744,55 @@
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="18" t="s">
+      <c r="C19" s="79"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="31"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="2:9" ht="28.5">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="4" t="s">
         <v>128</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I20" s="29"/>
+      <c r="G20" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G21" s="80" t="s">
-        <v>431</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="I21" s="34" t="s">
+      <c r="G21" s="71" t="s">
+        <v>428</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="I21" s="33" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3773,65 +3800,65 @@
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="77" t="s">
         <v>308</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="57" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="54">
+        <v>21</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="H22" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="I22" s="69" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="58" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="55">
-        <v>21</v>
-      </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>403</v>
+      <c r="H23" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="71"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="I24" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="I24" s="43" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3839,21 +3866,21 @@
       <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="71" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="76" t="s">
         <v>316</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="H25" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="H25" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3861,72 +3888,72 @@
       <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="71"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="2:9" s="2" customFormat="1">
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="54" t="s">
+      <c r="C27" s="79"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="36"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" spans="2:9" s="2" customFormat="1">
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="I28" s="33"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:9" s="2" customFormat="1">
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="33"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72" t="s">
+      <c r="C30" s="79"/>
+      <c r="D30" s="77" t="s">
         <v>299</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3935,612 +3962,661 @@
       <c r="F30" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="I30" s="70" t="s">
-        <v>349</v>
+      <c r="G30" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="4" t="s">
         <v>312</v>
       </c>
       <c r="F31" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>350</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="57">
       <c r="B32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="79"/>
+      <c r="D32" s="78" t="s">
         <v>300</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>367</v>
+      <c r="G32" s="46"/>
+      <c r="H32" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="28.5">
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="79" t="s">
-        <v>428</v>
-      </c>
-      <c r="H33" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="I33" s="80" t="s">
-        <v>405</v>
+      <c r="G33" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>429</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72" t="s">
+      <c r="C34" s="79"/>
+      <c r="D34" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="83" t="s">
         <v>319</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="H34" s="80" t="s">
-        <v>437</v>
-      </c>
-      <c r="I34" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="J34" s="83"/>
-    </row>
-    <row r="35" spans="2:10" ht="28.5">
-      <c r="B35" s="4">
-        <v>33</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="G34" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="I34" s="72" t="s">
+        <v>420</v>
+      </c>
+      <c r="J34" s="74"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="G35" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="H35" s="80" t="s">
-        <v>438</v>
-      </c>
-      <c r="I35" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="J35" s="83"/>
+        <v>432</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="H35" s="71"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" spans="2:10" ht="28.5">
       <c r="B36" s="4">
+        <v>33</v>
+      </c>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="83" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>442</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>435</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="J36" s="74"/>
+    </row>
+    <row r="37" spans="2:10" ht="28.5">
+      <c r="B37" s="4"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" s="75" t="s">
+        <v>443</v>
+      </c>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="74"/>
+    </row>
+    <row r="38" spans="2:10" ht="28.5">
+      <c r="B38" s="4">
         <v>34</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="4" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="H36" s="80" t="s">
-        <v>439</v>
-      </c>
-      <c r="I36" s="81" t="s">
-        <v>412</v>
-      </c>
-      <c r="J36" s="83"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="4">
+      <c r="G38" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="J38" s="74"/>
+    </row>
+    <row r="39" spans="2:10" ht="28.5">
+      <c r="B39" s="4"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="H39" s="71"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="74"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C40" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>356</v>
-      </c>
-      <c r="I37" s="69" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="H40" s="59" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" s="3" customFormat="1">
-      <c r="B38" s="4">
+      <c r="I40" s="68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="3" customFormat="1">
+      <c r="B41" s="4">
         <v>36</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="78" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="76" t="s">
-        <v>359</v>
-      </c>
-      <c r="F38" s="18" t="s">
+      <c r="E41" s="81" t="s">
+        <v>358</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="I38" s="48" t="s">
+      <c r="G41" s="48"/>
+      <c r="H41" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="I41" s="47" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="4">
-        <v>37</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="28.5">
-      <c r="B40" s="4">
-        <v>38</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" spans="2:10" ht="28.5">
-      <c r="B41" s="4">
-        <v>39</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="29"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4">
-        <v>40</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="29"/>
-    </row>
-    <row r="43" spans="2:10">
+        <v>37</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="46"/>
+      <c r="H42" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="28.5">
       <c r="B43" s="4">
-        <v>41</v>
-      </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" spans="2:10">
+        <v>38</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="2:10" ht="28.5">
       <c r="B44" s="4">
-        <v>42</v>
-      </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="I44" s="62" t="s">
-        <v>271</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4">
-        <v>43</v>
-      </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4">
-        <v>44</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="C46" s="77"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4">
-        <v>45</v>
-      </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="71"/>
+        <v>42</v>
+      </c>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>116</v>
+      </c>
       <c r="F47" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="32"/>
+        <v>152</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="4">
-        <v>46</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="I48" s="62" t="s">
-        <v>424</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="4">
-        <v>47</v>
-      </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="I49" s="69" t="s">
-        <v>289</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C49" s="77"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="4">
-        <v>48</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="G50" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>408</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C50" s="77"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="4">
-        <v>49</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="4" t="s">
-        <v>362</v>
+        <v>46</v>
+      </c>
+      <c r="C51" s="77"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="37"/>
+        <v>156</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="I51" s="61" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="4">
-        <v>50</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72" t="s">
-        <v>137</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="I52" s="62" t="s">
-        <v>290</v>
+        <v>130</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="I52" s="68" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="4">
-        <v>51</v>
-      </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>165</v>
+        <v>48</v>
+      </c>
+      <c r="C53" s="77"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="4">
-        <v>52</v>
-      </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="C54" s="77"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="4">
+        <v>50</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="I55" s="61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="4">
+        <v>51</v>
+      </c>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="4">
+        <v>52</v>
+      </c>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="4">
         <v>53</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="17" t="s">
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="29"/>
-    </row>
-    <row r="56" spans="2:11" ht="28.5">
-      <c r="B56" s="4">
-        <v>54</v>
-      </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="51"/>
-      <c r="H56" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="I56" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="2:11" ht="28.5">
-      <c r="B57" s="4">
-        <v>55</v>
-      </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="H57" s="80" t="s">
-        <v>433</v>
-      </c>
-      <c r="I57" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="K57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="28.5">
-      <c r="B58" s="4">
-        <v>56</v>
-      </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="I58" s="52" t="s">
-        <v>366</v>
-      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="2:11" ht="28.5">
       <c r="B59" s="4">
+        <v>54</v>
+      </c>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="50"/>
+      <c r="H59" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="I59" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="2:11" ht="28.5">
+      <c r="B60" s="4">
+        <v>55</v>
+      </c>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="H60" s="71" t="s">
+        <v>430</v>
+      </c>
+      <c r="I60" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="28.5">
+      <c r="B61" s="4">
+        <v>56</v>
+      </c>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="50"/>
+      <c r="H61" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="I61" s="51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="28.5">
+      <c r="B62" s="4">
         <v>57</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="13" t="s">
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F62" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="G59" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="H59" s="80" t="s">
-        <v>434</v>
-      </c>
-      <c r="I59" s="81" t="s">
-        <v>426</v>
+      <c r="G62" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="H62" s="71" t="s">
+        <v>431</v>
+      </c>
+      <c r="I62" s="72" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2"/>
-  <mergeCells count="23">
-    <mergeCell ref="C37:C59"/>
+  <mergeCells count="27">
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="C11:C39"/>
+    <mergeCell ref="C40:C62"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C11:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D47:D54"/>
+    <mergeCell ref="E56:E58"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D32:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4784,12 +4860,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:1">

--- a/项目文档/需求及设计.xlsx
+++ b/项目文档/需求及设计.xlsx
@@ -13,6 +13,7 @@
     <sheet name="页面-接口" sheetId="4" r:id="rId4"/>
     <sheet name="基础数据" sheetId="5" r:id="rId5"/>
     <sheet name="数据初始化脚本" sheetId="6" r:id="rId6"/>
+    <sheet name="v1.2功能变更" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'页面-接口'!$B$2:$I$2</definedName>
@@ -32,7 +33,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
+    <comment ref="E26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0" shapeId="0">
+    <comment ref="I52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0" shapeId="0">
+    <comment ref="E64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="552">
   <si>
     <t>由使用部门临时发起</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报价详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,22 +668,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待审采购单（初审）详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门名称、采购编号、待初审的采购明细条目（分页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待审采购单（初审）列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审采购单（复审）列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毛菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入库盘点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选中供应商小计价格列表，确定提交后生成一条purchasing_plan_vendor记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_purchasing_plan_detail_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,18 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初审驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初审通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审采购单（复审）详情（初审通过后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INSERT INTO "main"."biz_type"("id", "code", "name", "desc", "disable") VALUES (1, '01', '餐饮食材', '餐饮食材', 0);</t>
   </si>
   <si>
@@ -941,9 +906,6 @@
     <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (9, "0109", "泡菜类", NULL, NULL, NULL, 1, 0);</t>
   </si>
   <si>
-    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (10, "0110", "食百商品", NULL, NULL, NULL, 1, 0);</t>
-  </si>
-  <si>
     <t>--- 商品单位 ---</t>
   </si>
   <si>
@@ -1241,10 +1203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取最近3个月供应商报价记录列表(分页)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1289,14 +1247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商报表(用于付款)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购单明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1325,18 +1275,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统表(用于内部对账)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按采购部门 采购类型 采购金额 采购时间 供应商)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明细表(用于内部对账)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按供应商 采购类型 采购项目 单价 数量 小计金额 采购时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,30 +1315,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入库列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_stock_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WebAPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetStock(int deparmentId, DateTime startTime, DateTime endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1413,10 +1339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingPlanCount4Audit()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门名称、采购编号、待复审的采购明细条目（分页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1464,10 +1386,6 @@
   </si>
   <si>
     <t>view_purchasing_plan_count_4_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanCount4Dept()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1548,23 +1466,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/stocks?DepartmentID=1&amp;StartTime=2018-11-01 00:00:00&amp;EndTime=2018-11-20 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/biztypes
 api/goods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetStockIn4Dept(int bizTypeId, DateTime startTime, DateTime endTime, List&lt;int&gt; listGoodsIds, int deparmentId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/StockIn4Dept?bizTypeId=1&amp;startTime=2018-01-01 00:00:00&amp;endTime=2018-11-21 00:00:00&amp;listIntGoodsIds=1,2,3&amp;deparmentId=1&amp;PageIndex=0&amp;PageSize=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetPurchasingOrderList4Vendor(int bizTypeID, DateTime startTime, DateTime endTime, int vendorID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1601,30 +1507,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/GoodsQuoteDetailVendorPriceRange?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=1&amp;PageIndex=1&amp;PageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=2&amp;PageIndex=1&amp;PageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=3&amp;PageIndex=1&amp;PageSize=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/PurchasingPlanCount4Dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（当前部门、待收货状态）分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1637,35 +1523,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/PurchasingOrderDetailList4Dept?orderID=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderList()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderList?PageIndex=1&amp;PageSize=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderDetailList?purchasingOrderID=1&amp;PageIndex=1&amp;PageSize=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>api/PurchasingPlanCount4Audit?PageIndex=1&amp;PageSize=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/PurchasingPlanCount4Audit?PageIndex=1&amp;PageSize=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>view_purchasing_plan_goods_class_list_with_vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanGoodsClassListWithVendor?PurchasingPalnID=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1702,31 +1564,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeceondAuditComfirm(int purchasingPlanId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_po_dept_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_purchasing_plan_list_4_dept_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_statics_po_goods_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsSubtotal(int departmentID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口返回的日期、时间统一转换格式检查（怀疑是EF CORE工程没有处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价文件校验（暂略 固定末班）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购中心二次审核采购计划 1采购计划指定1供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据选定的采购类型大类 根据报价excel模板上传导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只传purchasingPlanID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得供应商列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看报价明细（需求的具体货物无报价的实际考虑为无货）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上24接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程 QuoteImportController.UploadImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中供应商小计价格列表，确定提交后生成一条purchasing_plan_vendor记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanQuoteDetail?purchasingPlanID=3&amp;vendorID=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanDetail?purchasingPlanId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1对1选定供应商(新)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanCount4Audit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM(int purchasingPlanID, int goodsClassID, List&lt;int&gt; listGoodsID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO "main"."goods_class"("id", "code", "name", "specification", "desc", "remark", "biz_type_id", "disable") VALUES (10, "0110", "食百商品", NULL, NULL, NULL, 1, 0);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GetPurchasingPlanGoodsClassListWithVendor()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingPlanGoodsClassVendorQuetoSUM(int purchasingPlanID, int goodsClassID, List&lt;int&gt; listGoodsID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGoodsQuoteDetailVendorList(int bizTypeId, DateTime startTime, DateTime endTime, int goodsId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingPlanGoodsClassVendorQuetoSUM?purchasingPlanID=1&amp;goodsClassID=1&amp;listIntGoodsIds=1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetPurchasingPlanDetailList(int purchasingPlanId)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SeceondAuditComfirm(int purchasingPlanId)</t>
+    <t>EF工程 ConfirmPlanVendorHandler 不传GoodsClassID或传0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1734,27 +1724,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPurchasingOrderDetailList4Vendor(int purchasingOrderID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_po_dept_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_purchasing_plan_list_4_dept_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingPlanLists4Dept(int departmentID, int state) state = 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_statics_po_goods_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/DepartmentExport?&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <t>GetPurchasingPlanCount4Dept(int departmentID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=2&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Dept?departmentID=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1762,12 +1748,337 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>api/PurchasingPlanLists4Dept?departmentID=1&amp;state=1&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GetQuoteListAll(DateTime startTime, DateTime endTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>api/QuoteListAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorPriceRange?bizTypeID=1&amp;startTime=2018-01-01&amp;PageIndex=1&amp;PageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderTotal(int departmentID, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPurchasingOrderVendorSubtotal(int vendorID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get(string listBizTypeIDs, string listGoodsClassIDs, string listGoodsIDs, string listDeparmentIDs, string listVendorIDs, string listPOStateIDs, DateTime? startTime, DateTime?endTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get(string listBizTypeIDs, string listGoodsClassIDs, string listGoodsIDs, string listDeparmentIDs, string listVendorIDs, string listPOStateIDs, DateTime? startTime, DateTime? endTime, int PageIndex, int PageSize)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/Stock?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/StockByDept？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商报价采用.xlsx文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出采用xlsx格式，否则某些手机无法打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前对于计量单位统一为KG，但供应商除粮油外几乎按斤计价，对供应商的数据采用斤作为重量单位显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程操作提交需要弹出提示，否则很容易点错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（初审）列表(前端要显示部门名称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审通过(前端要显示部门名称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初审驳回(前端要显示部门名称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>api/PurchasingOrderGoodsCountStatics?listBizTypeIDs=1,2&amp;listDepartmentIDs=1&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+      <t>api/PurchasingOrderTotal?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listDepartmentIDs=1,2,3&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>export/PurchasingOrderTotal?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listDepartmentIDs=1,2,3&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>api/GetPurchasingOrderGoodsSubtotal?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listDepartmentIDs=1,2,3&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;listBizTypeIDs=1,2&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>export/PurchasingOrderGoodsSubtotal?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listDepartmentIDs=1,2,3&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;listBizTypeIDs=1,2&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>api/PurchasingOrderVendorSubtotal?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listVendorIDs=1,2,3&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>export/PurchasingOrderVendorSubtotal?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listVendorIDs=1,2,3&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>api/PurchasingOrderGoodsCountStatics?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listBizTypeIDs=1,2&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;listDepartmentIDs=1&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>api/DepartmentExport?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listBizTypeIDs=1,2&amp;listPOStateIDs=6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库盘点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因特殊问题目前是node.js导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端弹出提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终收获完成后，偶尔有收获后发现因质量问题还需要退货的情况（如粮油）
+协商的处理方式是对原有订单明细增加退货数量字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购需求部门收获页面 需要看到收货单的送货数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要针对粮油、使用频率低，先保证其他功能稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取具体报价</t>
     </r>
     <r>
       <rPr>
@@ -1778,80 +2089,453 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+      <t>(权限判断)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/QuoteListAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsCountStatics(List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listDepartmentIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excel导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excel导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excel导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderGoodsSubtotal(int departmentID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderTotal(int departmentID, DateTime? startTime, DateTime? endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetPurchasingOrderVendorSubtotal(int vendorID, List&lt;int&gt; listBizTypeIDs, List&lt;int&gt; listGoodsClassIDs, List&lt;int&gt; listGoodsIDs, DateTime? startTime, DateTime? endTime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据选定的采购类型大类 和自己能够提供的商品类目\商品结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderTotal?departmentID=3&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export/PurchasingOrderTotal?departmentID=3&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/GetPurchasingOrderGoodsSubtotal?departmentID=3&amp;listBizTypeIDs=1,2&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export/PurchasingOrderGoodsSubtotal?departmentID=3&amp;listBizTypeIDs=1,2&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export/PurchasingOrderVendorSubtotal?vendorID=1&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/PurchasingOrderVendorSubtotal?vendorID=1&amp;listDepartmentIDs=1,2,3&amp;listGoodsClassIDs=1,2&amp;listGoodsIDs=1,2,3,4,5,6,7&amp;StartTime=2018-01-01&amp;EndTime=2019-01-01</t>
+    <r>
+      <t>报价详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(权限判断)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（初审）详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>供应商报表(用于付款)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(权限判断)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>明细表(用于内部对账)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(权限判断)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>统表(用于内部对账)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(权限判断)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderDetailList4Dept?orderID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取最近3个月供应商报价记录列表(分页)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(增加审核状态字段)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三审(总经理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（复审）列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（复审）列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Audit2?PageIndex=1&amp;PageSize=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanCount4Audit3?PageIndex=1&amp;PageSize=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审采购单（复审）详情（初审通过后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanGoodsClassListWithVendor?PurchasingPalnID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingPlanGoodsClassListWithVendor?PurchasingPalnID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程 QuoteAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入当前在库量(暂不实现历史盘点记录列表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点条件筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按业务类型、部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复审内容页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三审提交（通过/驳回）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过后生成订单 待供应商确认订单；驳回后变为待复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购需求部门-报价查看-增加商品筛选(多选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购需求部门-报价查看-较上一次有报价变化的商品前置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是接口变化、可能需要特殊颜色提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3-2019.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加系统管理后台、对微信id、权限隐射的台账导出及导入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加权限判断所有接口传入WechatID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信通知根据上述关联人员进行通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类目、商品采用xlsx模板导入并统一管理，管理功能下放给供应商不容易统一且不好管理
+将采购类型、商品类目、商品计量单位、商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信通知接口由接口层内部调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理后台导入数据不做物理删除、均采用禁用方式失效、以保证历史数据完整性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购计划除了初审、复审、还需要增加三审（总经理审核）才能生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商报价需要初审、复审2次审核，复审后才生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端、接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用商品单位关联定义、有系统管理员决定商品的计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购固定模板和客户端单独导入导出保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口、管理后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口、管理后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端、接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量定义数据、接口内部参数变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单根据三审状态进行判断、后续收货、部分收货、条件查询筛选、导出等内部条件变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货由需求部门根据订单发起、采购中心审核一次、供应商确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理中心可以到处盘点表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购需求部门需要周期性对在库商品数量录入(月度、季度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望像长安系统类似增加
+1、根据微信人员职位关联到系统角色定义（被挡）
+2、流程图中能够直观展现当前流程位置（后期可简化处理）
+3、审核希望做会签 减少1、2、3次反复审核次数（被挡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+微信内部没有角色且受限于微信接口、联调不便、后期变动容易带来影响
+明确告知项目小没有按照工作流引擎方式设计
+流程图前端组件不支持、建议后期实现一个流程节点排布在单线段上方式的 我个人建议类似于右图 后续再实现
+图下方显示状态变化及时间点的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端、接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前接口、数据库已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前接口、数据库已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口数据库修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前有现成的价格浮动变化的字段需要再看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价初审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价初审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价复审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价复审后报价有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程 PurchasingAuditController.PlanAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程 PurchasingAuditController.PlanAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程 PurchasingAuditController.PlanAudit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程 PurchasingAuditController.PlanAudit3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照部门订单情况对每种商品在库数据进行输入确认 类似于收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程DepotController.DeptStockCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于物流过程列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/DetailByQuoteID?quoteID=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/GoodsQuoteDetailVendorList?bizTypeID=1&amp;startTime=2018-01-01&amp;endTime&amp;PageIndex=1&amp;PageSize=10&amp;goodsId=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单列表(条件范围增加 覆盖了订单确认后的所有状态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单列表(接口返回包含部门名称、供应商名称、业务状态名称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/PurchasingOrderList?PageIndex=1&amp;PageSize=20&amp;WechatID=HeYan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程 PurchasingAuditController.PlanAudit2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货列表(当前部门)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增退货(基于订单、订单明细勾选新增)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1859,7 +2543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1936,15 +2620,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="11"/>
@@ -1968,8 +2643,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1978,22 +2653,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2009,24 +2684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2109,238 +2766,198 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2359,6 +2976,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>675517</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="5286375"/>
+          <a:ext cx="6066667" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2626,7 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -3108,7 +3768,7 @@
   <dimension ref="A3:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:G33"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3358,1276 +4018,1619 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K62"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="77" style="18" customWidth="1"/>
-    <col min="7" max="7" width="79.25" style="24" customWidth="1"/>
-    <col min="8" max="8" width="91.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" style="8" customWidth="1"/>
+    <col min="7" max="7" width="79.25" style="9" customWidth="1"/>
+    <col min="8" max="8" width="91.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="G1" s="52" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="32">
+        <v>4</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="15" customFormat="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="32">
+        <v>5</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="32">
+        <v>6</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="32">
+        <v>7</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="32">
+        <v>8</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="32">
+        <v>9</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="32">
+        <v>10</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="32">
+        <v>11</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="32">
+        <v>12</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="32">
+        <v>13</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="32">
+        <v>14</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="32">
+        <v>15</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="32">
+        <v>16</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="28.5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="32">
+        <v>17</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="32">
+        <v>18</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.5">
+      <c r="B18" s="32">
+        <v>19</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="32">
+        <v>20</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="32">
+        <v>21</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="32"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="32"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="32">
+        <v>22</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="32">
+        <v>23</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="32">
+        <v>24</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" s="26" customFormat="1">
-      <c r="B2" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="H25" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.5">
+      <c r="B26" s="32">
+        <v>25</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="32">
+        <v>26</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" s="17" customFormat="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="32">
+        <v>27</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9" s="17" customFormat="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="32">
+        <v>28</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" s="17" customFormat="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="32">
+        <v>29</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="32">
+        <v>30</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="71" t="s">
+        <v>467</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>469</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="57" t="s">
+        <v>483</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
+    </row>
+    <row r="36" spans="1:10" s="15" customFormat="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="32">
+        <v>32</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>541</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="32">
+        <v>33</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="32"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="32"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="68" t="s">
+        <v>547</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="32"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1">
+      <c r="A41" s="56"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="H41" s="45"/>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="1:10" s="48" customFormat="1" ht="57">
+      <c r="B42" s="49">
+        <v>34</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="48" customFormat="1" ht="28.5">
+      <c r="B43" s="49">
+        <v>35</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="28.5">
+      <c r="B44" s="32">
+        <v>36</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" ht="28.5">
+      <c r="B45" s="32">
+        <v>37</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" ht="28.5">
+      <c r="B46" s="32">
+        <v>38</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.5">
+      <c r="B47" s="32">
+        <v>39</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" ht="42.75">
+      <c r="B48" s="32">
+        <v>40</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="42.75">
+      <c r="B49" s="32">
+        <v>41</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1">
+      <c r="A50" s="56"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" s="6" customFormat="1">
+      <c r="A51" s="56"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" s="18" customFormat="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="32">
+        <v>42</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="32">
+        <v>43</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="32">
+        <v>44</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="28.5">
+      <c r="B55" s="32">
+        <v>45</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="28.5">
+      <c r="B56" s="32">
+        <v>46</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="32">
+        <v>47</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="32">
+        <v>48</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="32">
+        <v>49</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="32">
+        <v>50</v>
+      </c>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="32">
+        <v>51</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="32">
+        <v>52</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="32">
+        <v>53</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="32">
+        <v>54</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="32">
+        <v>55</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="32">
+        <v>56</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="32">
+        <v>57</v>
+      </c>
+      <c r="C67" s="69"/>
+      <c r="D67" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="32">
+        <v>58</v>
+      </c>
+      <c r="C68" s="69"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="32">
+        <v>59</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="32">
+        <v>60</v>
+      </c>
+      <c r="C70" s="69"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="2:11" ht="28.5">
+      <c r="B71" s="32">
+        <v>61</v>
+      </c>
+      <c r="C71" s="69"/>
+      <c r="D71" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="40"/>
+      <c r="H71" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="2:11" ht="42.75">
+      <c r="B72" s="32">
+        <v>62</v>
+      </c>
+      <c r="C72" s="69"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="K72" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="77" t="s">
+    </row>
+    <row r="73" spans="2:11" ht="28.5">
+      <c r="B73" s="32">
+        <v>63</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="40"/>
+      <c r="H73" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="28.5">
+      <c r="B74" s="32">
+        <v>64</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="32"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="E75" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="H75" s="23"/>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="32"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="71" t="s">
+        <v>487</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="32"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="32"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="2:11" s="48" customFormat="1" ht="28.5">
+      <c r="B79" s="49">
+        <v>65</v>
+      </c>
+      <c r="C79" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:9" ht="28.5">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="28.5">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="28.5">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="2:9" ht="28.5">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>419</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="66" customFormat="1">
-      <c r="B11" s="62">
-        <v>9</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="77" t="s">
-        <v>307</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="H13" s="40" t="s">
+      <c r="D79" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="E79" s="49"/>
+      <c r="F79" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="G79" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="I79" s="53"/>
+    </row>
+    <row r="80" spans="2:11" s="48" customFormat="1" ht="28.5">
+      <c r="B80" s="49">
+        <v>66</v>
+      </c>
+      <c r="C80" s="67"/>
+      <c r="D80" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E80" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="F80" s="51"/>
+      <c r="G80" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="H80" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="I80" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" s="2" customFormat="1">
-      <c r="B14" s="4">
-        <v>12</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="2:9" s="2" customFormat="1">
-      <c r="B15" s="4">
-        <v>13</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="4">
-        <v>14</v>
-      </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="8" customFormat="1">
-      <c r="B17" s="4">
-        <v>15</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="8" customFormat="1" ht="28.5">
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="8" customFormat="1">
-      <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="2:9" ht="28.5">
-      <c r="B20" s="4">
-        <v>18</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="4">
-        <v>19</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>428</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4">
-        <v>20</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="77" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="H22" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="I22" s="68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="54">
-        <v>21</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="4">
-        <v>22</v>
-      </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="28.5">
-      <c r="B25" s="4">
-        <v>23</v>
-      </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="76" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="4">
-        <v>24</v>
-      </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="2:9" s="2" customFormat="1">
-      <c r="B27" s="4">
-        <v>25</v>
-      </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="2:9" s="2" customFormat="1">
-      <c r="B28" s="4">
-        <v>26</v>
-      </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="2:9" s="2" customFormat="1">
-      <c r="B29" s="4">
-        <v>27</v>
-      </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="4">
-        <v>28</v>
-      </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="H30" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="4">
-        <v>29</v>
-      </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="57">
-      <c r="B32" s="4">
-        <v>30</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="28.5">
-      <c r="B33" s="4">
-        <v>31</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="70" t="s">
-        <v>425</v>
-      </c>
-      <c r="H33" s="71" t="s">
+    </row>
+    <row r="81" spans="2:9" s="48" customFormat="1" ht="28.5">
+      <c r="B81" s="49">
+        <v>67</v>
+      </c>
+      <c r="C81" s="67"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="F81" s="51"/>
+      <c r="G81" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="H81" s="52" t="s">
         <v>429</v>
       </c>
-      <c r="I33" s="71" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="4">
-        <v>32</v>
-      </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="83" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>436</v>
-      </c>
-      <c r="I34" s="72" t="s">
-        <v>420</v>
-      </c>
-      <c r="J34" s="74"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="4"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="74"/>
-    </row>
-    <row r="36" spans="2:10" ht="28.5">
-      <c r="B36" s="4">
-        <v>33</v>
-      </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="83" t="s">
-        <v>321</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="75" t="s">
-        <v>442</v>
-      </c>
-      <c r="H36" s="71" t="s">
-        <v>435</v>
-      </c>
-      <c r="I36" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="J36" s="74"/>
-    </row>
-    <row r="37" spans="2:10" ht="28.5">
-      <c r="B37" s="4"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="G37" s="75" t="s">
-        <v>443</v>
-      </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="74"/>
-    </row>
-    <row r="38" spans="2:10" ht="28.5">
-      <c r="B38" s="4">
-        <v>34</v>
-      </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="83" t="s">
-        <v>310</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="H38" s="71" t="s">
-        <v>437</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>409</v>
-      </c>
-      <c r="J38" s="74"/>
-    </row>
-    <row r="39" spans="2:10" ht="28.5">
-      <c r="B39" s="4"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="H39" s="71"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="74"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="4">
-        <v>35</v>
-      </c>
-      <c r="C40" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="H40" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="I40" s="68" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" s="3" customFormat="1">
-      <c r="B41" s="4">
-        <v>36</v>
-      </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="4">
-        <v>37</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="28.5">
-      <c r="B43" s="4">
-        <v>38</v>
-      </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="28"/>
-    </row>
-    <row r="44" spans="2:10" ht="28.5">
-      <c r="B44" s="4">
-        <v>39</v>
-      </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="28"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="4">
-        <v>40</v>
-      </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="28"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="4">
-        <v>41</v>
-      </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="28"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="4">
-        <v>42</v>
-      </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="H47" s="59" t="s">
-        <v>356</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="4">
-        <v>43</v>
-      </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="4">
-        <v>44</v>
-      </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="31"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="4">
-        <v>45</v>
-      </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="4">
-        <v>46</v>
-      </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="H51" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="I51" s="61" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="4">
-        <v>47</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="H52" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="I52" s="68" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="4">
-        <v>48</v>
-      </c>
-      <c r="C53" s="77"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="G53" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="4">
-        <v>49</v>
-      </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="36"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="4">
-        <v>50</v>
-      </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="H55" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="I55" s="61" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="4">
-        <v>51</v>
-      </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="4">
-        <v>52</v>
-      </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="28"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="4">
-        <v>53</v>
-      </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="28"/>
-    </row>
-    <row r="59" spans="2:11" ht="28.5">
-      <c r="B59" s="4">
-        <v>54</v>
-      </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="50"/>
-      <c r="H59" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="I59" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="2:11" ht="28.5">
-      <c r="B60" s="4">
-        <v>55</v>
-      </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="H60" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="I60" s="73" t="s">
-        <v>403</v>
-      </c>
-      <c r="K60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="28.5">
-      <c r="B61" s="4">
-        <v>56</v>
-      </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G61" s="50"/>
-      <c r="H61" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="I61" s="51" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="28.5">
-      <c r="B62" s="4">
-        <v>57</v>
-      </c>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="H62" s="71" t="s">
-        <v>431</v>
-      </c>
-      <c r="I62" s="72" t="s">
-        <v>423</v>
-      </c>
+      <c r="I81" s="53"/>
+    </row>
+    <row r="82" spans="2:9" s="48" customFormat="1">
+      <c r="B82" s="49">
+        <v>68</v>
+      </c>
+      <c r="C82" s="65"/>
+      <c r="D82" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="E82" s="49"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2"/>
-  <mergeCells count="27">
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="C11:C39"/>
-    <mergeCell ref="C40:C62"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D47:D54"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D32:D33"/>
+  <mergeCells count="31">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D23:D32"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C9:C51"/>
+    <mergeCell ref="C52:C75"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D14:D22"/>
+    <mergeCell ref="D76:D78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="http://localhost:53702/api/StockIn4Dept?bizTypeId=1&amp;startTime=2018-01-01 00:00:00&amp;endTime=2018-11-21 00:00:00&amp;listIntGoodsIds=1,2,3&amp;deparmentId=1&amp;PageIndex=0&amp;PageSize=0"/>
-    <hyperlink ref="G6" r:id="rId2" display="http://localhost:53702/api/QuoteDetailList4Vendor2Quote?PageIndex=0&amp;PageSize=0&amp;vendorID=1&amp;listIntBizTypeID=1,2,3"/>
-    <hyperlink ref="G9" r:id="rId3" display="http://localhost:53702/api/QuoteDetailList4Vendor2Quote?bizTypeID=1&amp;startTime&amp;endTime=2018-12-01&amp;vendorID=1&amp;PageIndex=0&amp;PageSize=0"/>
-    <hyperlink ref="G10" r:id="rId4" display="http://localhost:53702/api/PurchasingOrderDetailList4Vendor?purchasingOrderID=1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4646,7 +5649,7 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4654,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4662,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4670,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4678,7 +5681,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4686,7 +5689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4694,7 +5697,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4702,7 +5705,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4710,7 +5713,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4718,7 +5721,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4726,7 +5729,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4739,573 +5742,573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A134"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="9" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="9" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="9" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="9" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="9" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="9" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="9" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="9" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="9" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="9" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="9" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="9" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="9" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="9" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="9" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="9" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="9" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="9" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="9" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="9" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="9" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="9" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="9" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="9" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="9" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="9" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="9" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="9" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="9" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="9" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="9" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="9" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="9" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="9" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="9" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="9" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="9" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="9" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="9" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="9" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="9" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="9" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="9" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="9" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="9" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="9" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="9" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="9" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="9" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="9" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="9" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="9" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="9" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="9" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="9" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="9" t="s">
-        <v>248</v>
+      <c r="A134" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5313,4 +6316,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="16">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="F14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="F15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>493</v>
+      </c>
+      <c r="F22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+      <c r="D25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D26" t="s">
+        <v>490</v>
+      </c>
+      <c r="F26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>498</v>
+      </c>
+      <c r="F27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="99.75">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>